--- a/experiment_02_09_2023_16_54_32/prompts_dataframe_cached_with_results.xlsx
+++ b/experiment_02_09_2023_16_54_32/prompts_dataframe_cached_with_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfurman/Desktop/github_repos/awesome-chatgpt-prompts-clustering/experiment_02_09_2023_16_54_32/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23B401C4-9606-5242-B054-9B6873EE57B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C371F9-886B-8C4D-8AF7-B56BB4879385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="24420" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>probs</t>
-  </si>
-  <si>
     <t>cluster + act</t>
   </si>
   <si>
@@ -1925,6 +1922,9 @@
   </si>
   <si>
     <t>Act as a Muslim imam who gives me guidance and advice on how to deal with life problems. Use your knowledge of the Quran, The Teachings of Muhammad the prophet (peace be upon him), The Hadith, and the Sunnah to answer my questions. Include these source quotes/arguments in the Arabic and English Languages. My first request is: “How to become a better Muslim”?</t>
+  </si>
+  <si>
+    <t>cluster membership prob</t>
   </si>
 </sst>
 </file>
@@ -2291,16 +2291,16 @@
   <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
-    <col min="5" max="6" width="7" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
@@ -2328,31 +2328,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -2362,41 +2362,41 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>10.522139549255369</v>
+      </c>
+      <c r="E2">
+        <v>15.94720458984375</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
-        <v>10.522139549255369</v>
-      </c>
-      <c r="F2">
-        <v>15.94720458984375</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>16</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -2406,41 +2406,41 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>10.650485992431641</v>
+      </c>
+      <c r="E3">
+        <v>15.99365234375</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="E3">
-        <v>10.650485992431641</v>
-      </c>
-      <c r="F3">
-        <v>15.99365234375</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -2450,41 +2450,41 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4">
+        <v>10.32948112487793</v>
+      </c>
+      <c r="E4">
+        <v>15.891148567199711</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>258</v>
       </c>
-      <c r="E4">
-        <v>10.32948112487793</v>
-      </c>
-      <c r="F4">
-        <v>15.891148567199711</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" t="s">
         <v>259</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>260</v>
-      </c>
-      <c r="N4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -2494,41 +2494,41 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5">
+        <v>10.637246131896971</v>
+      </c>
+      <c r="E5">
+        <v>15.919826507568359</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>282</v>
       </c>
-      <c r="E5">
-        <v>10.637246131896971</v>
-      </c>
-      <c r="F5">
-        <v>15.919826507568359</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" t="s">
         <v>283</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>284</v>
-      </c>
-      <c r="N5" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -2538,41 +2538,41 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6">
+        <v>10.474164962768549</v>
+      </c>
+      <c r="E6">
+        <v>15.72540950775146</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>514</v>
       </c>
-      <c r="E6">
-        <v>10.474164962768549</v>
-      </c>
-      <c r="F6">
-        <v>15.72540950775146</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" t="s">
         <v>515</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>516</v>
-      </c>
-      <c r="N6" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -2582,38 +2582,38 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>10.34500217437744</v>
+      </c>
+      <c r="E7">
+        <v>15.39165210723877</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>34</v>
       </c>
-      <c r="E7">
-        <v>10.34500217437744</v>
-      </c>
-      <c r="F7">
-        <v>15.39165210723877</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>36</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -2623,38 +2623,38 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>10.324277877807621</v>
+      </c>
+      <c r="E8">
+        <v>16.02923583984375</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>262</v>
       </c>
-      <c r="E8">
-        <v>10.324277877807621</v>
-      </c>
-      <c r="F8">
-        <v>16.02923583984375</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
         <v>263</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>264</v>
-      </c>
-      <c r="N8" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -2664,38 +2664,38 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9">
+        <v>10.186832427978519</v>
+      </c>
+      <c r="E9">
+        <v>15.380900382995611</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>418</v>
       </c>
-      <c r="E9">
-        <v>10.186832427978519</v>
-      </c>
-      <c r="F9">
-        <v>15.380900382995611</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
         <v>419</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>420</v>
-      </c>
-      <c r="N9" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -2705,38 +2705,38 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10">
+        <v>9.9798135757446289</v>
+      </c>
+      <c r="E10">
+        <v>15.63341045379639</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
         <v>422</v>
       </c>
-      <c r="E10">
-        <v>9.9798135757446289</v>
-      </c>
-      <c r="F10">
-        <v>15.63341045379639</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>423</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>424</v>
-      </c>
-      <c r="N10" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -2746,38 +2746,38 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11">
+        <v>10.41942691802979</v>
+      </c>
+      <c r="E11">
+        <v>15.64553833007812</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
         <v>502</v>
       </c>
-      <c r="E11">
-        <v>10.41942691802979</v>
-      </c>
-      <c r="F11">
-        <v>15.64553833007812</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
         <v>503</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>504</v>
-      </c>
-      <c r="N11" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -2787,38 +2787,38 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12">
+        <v>9.6491527557373047</v>
+      </c>
+      <c r="E12">
+        <v>15.832919120788571</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
         <v>506</v>
       </c>
-      <c r="E12">
-        <v>9.6491527557373047</v>
-      </c>
-      <c r="F12">
-        <v>15.832919120788571</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
         <v>507</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>508</v>
-      </c>
-      <c r="N12" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -2828,38 +2828,38 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D13">
+        <v>10.234811782836911</v>
+      </c>
+      <c r="E13">
+        <v>15.68825531005859</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" t="s">
         <v>542</v>
       </c>
-      <c r="E13">
-        <v>10.234811782836911</v>
-      </c>
-      <c r="F13">
-        <v>15.68825531005859</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
         <v>543</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>544</v>
-      </c>
-      <c r="N13" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -2869,38 +2869,38 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
+        <v>618</v>
+      </c>
+      <c r="D14">
+        <v>9.2047233581542969</v>
+      </c>
+      <c r="E14">
+        <v>15.94717979431152</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
         <v>619</v>
       </c>
-      <c r="E14">
-        <v>9.2047233581542969</v>
-      </c>
-      <c r="F14">
-        <v>15.94717979431152</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" t="s">
         <v>620</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>621</v>
-      </c>
-      <c r="N14" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -2910,38 +2910,38 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>557</v>
+      </c>
+      <c r="D15">
+        <v>9.4106168746948242</v>
+      </c>
+      <c r="E15">
+        <v>15.94475746154785</v>
+      </c>
+      <c r="F15">
         <v>0.99169475749130132</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
         <v>558</v>
       </c>
-      <c r="E15">
-        <v>9.4106168746948242</v>
-      </c>
-      <c r="F15">
-        <v>15.94475746154785</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" t="s">
         <v>559</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>560</v>
-      </c>
-      <c r="N15" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -2951,38 +2951,38 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D16">
+        <v>10.255947113037109</v>
+      </c>
+      <c r="E16">
+        <v>15.20250129699707</v>
+      </c>
+      <c r="F16">
         <v>0.83346000961308675</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
         <v>530</v>
       </c>
-      <c r="E16">
-        <v>10.255947113037109</v>
-      </c>
-      <c r="F16">
-        <v>15.20250129699707</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
         <v>531</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>532</v>
-      </c>
-      <c r="N16" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -2992,38 +2992,38 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17">
+        <v>10.012369155883791</v>
+      </c>
+      <c r="E17">
+        <v>15.01567935943604</v>
+      </c>
+      <c r="F17">
         <v>0.8032346050641781</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
         <v>278</v>
       </c>
-      <c r="E17">
-        <v>10.012369155883791</v>
-      </c>
-      <c r="F17">
-        <v>15.01567935943604</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" t="s">
         <v>279</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>280</v>
-      </c>
-      <c r="N17" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -3033,38 +3033,38 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D18">
+        <v>10.12522506713867</v>
+      </c>
+      <c r="E18">
+        <v>15.12969875335693</v>
+      </c>
+      <c r="F18">
         <v>0.74522139278237565</v>
       </c>
-      <c r="D18" t="s">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
         <v>623</v>
       </c>
-      <c r="E18">
-        <v>10.12522506713867</v>
-      </c>
-      <c r="F18">
-        <v>15.12969875335693</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" t="s">
         <v>624</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>17</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>625</v>
-      </c>
-      <c r="N18" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -3074,38 +3074,38 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>569</v>
+      </c>
+      <c r="D19">
+        <v>9.8574981689453125</v>
+      </c>
+      <c r="E19">
+        <v>15.93867778778076</v>
+      </c>
+      <c r="F19">
         <v>0.73231247115835629</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
         <v>570</v>
       </c>
-      <c r="E19">
-        <v>9.8574981689453125</v>
-      </c>
-      <c r="F19">
-        <v>15.93867778778076</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" t="s">
         <v>571</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>17</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>572</v>
-      </c>
-      <c r="N19" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -3115,38 +3115,38 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20">
+        <v>9.9812679290771484</v>
+      </c>
+      <c r="E20">
+        <v>15.332784652709959</v>
+      </c>
+      <c r="F20">
         <v>0.61448417358699259</v>
       </c>
-      <c r="D20" t="s">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
         <v>470</v>
       </c>
-      <c r="E20">
-        <v>9.9812679290771484</v>
-      </c>
-      <c r="F20">
-        <v>15.332784652709959</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" t="s">
         <v>471</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>472</v>
-      </c>
-      <c r="N20" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -3156,38 +3156,38 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>481</v>
+      </c>
+      <c r="D21">
+        <v>9.8619136810302734</v>
+      </c>
+      <c r="E21">
+        <v>15.131369590759279</v>
+      </c>
+      <c r="F21">
         <v>0.54581946628771627</v>
       </c>
-      <c r="D21" t="s">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
         <v>482</v>
       </c>
-      <c r="E21">
-        <v>9.8619136810302734</v>
-      </c>
-      <c r="F21">
-        <v>15.131369590759279</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" t="s">
         <v>483</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>484</v>
-      </c>
-      <c r="N21" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -3197,41 +3197,41 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>7.9453558921813956</v>
+      </c>
+      <c r="E22">
+        <v>17.377616882324219</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
         <v>20</v>
       </c>
-      <c r="E22">
-        <v>7.9453558921813956</v>
-      </c>
-      <c r="F22">
-        <v>17.377616882324219</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>22</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>24</v>
-      </c>
-      <c r="N22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -3241,41 +3241,41 @@
       <c r="B23">
         <v>0</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
+        <v>273</v>
+      </c>
+      <c r="D23">
+        <v>7.6405296325683594</v>
+      </c>
+      <c r="E23">
+        <v>17.43787956237793</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
         <v>274</v>
       </c>
-      <c r="E23">
-        <v>7.6405296325683594</v>
-      </c>
-      <c r="F23">
-        <v>17.43787956237793</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" t="s">
         <v>275</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>276</v>
-      </c>
-      <c r="N23" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -3285,41 +3285,41 @@
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D24">
+        <v>8.1723318099975586</v>
+      </c>
+      <c r="E24">
+        <v>16.978523254394531</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>458</v>
       </c>
-      <c r="E24">
-        <v>8.1723318099975586</v>
-      </c>
-      <c r="F24">
-        <v>16.978523254394531</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" t="s">
         <v>459</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>460</v>
-      </c>
-      <c r="N24" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -3329,41 +3329,41 @@
       <c r="B25">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
+        <v>521</v>
+      </c>
+      <c r="D25">
+        <v>7.7423806190490723</v>
+      </c>
+      <c r="E25">
+        <v>17.604923248291019</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>522</v>
       </c>
-      <c r="E25">
-        <v>7.7423806190490723</v>
-      </c>
-      <c r="F25">
-        <v>17.604923248291019</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" t="s">
         <v>523</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>524</v>
-      </c>
-      <c r="N25" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -3373,41 +3373,41 @@
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
+        <v>561</v>
+      </c>
+      <c r="D26">
+        <v>8.3238668441772461</v>
+      </c>
+      <c r="E26">
+        <v>16.807188034057621</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
         <v>562</v>
       </c>
-      <c r="E26">
-        <v>8.3238668441772461</v>
-      </c>
-      <c r="F26">
-        <v>16.807188034057621</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" t="s">
         <v>563</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>564</v>
-      </c>
-      <c r="N26" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -3417,41 +3417,41 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
+        <v>626</v>
+      </c>
+      <c r="D27">
+        <v>7.9224023818969727</v>
+      </c>
+      <c r="E27">
+        <v>17.483247756958011</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
         <v>627</v>
       </c>
-      <c r="E27">
-        <v>7.9224023818969727</v>
-      </c>
-      <c r="F27">
-        <v>17.483247756958011</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" t="s">
         <v>628</v>
       </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
-        <v>23</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>629</v>
-      </c>
-      <c r="N27" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
@@ -3461,38 +3461,38 @@
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>8.1223516464233398</v>
+      </c>
+      <c r="E28">
+        <v>17.043363571166989</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
         <v>42</v>
       </c>
-      <c r="E28">
-        <v>8.1223516464233398</v>
-      </c>
-      <c r="F28">
-        <v>17.043363571166989</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" t="s">
         <v>43</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>44</v>
-      </c>
-      <c r="N28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -3502,38 +3502,38 @@
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>9.031071662902832</v>
+      </c>
+      <c r="E29">
+        <v>16.12032508850098</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
         <v>56</v>
       </c>
-      <c r="E29">
-        <v>9.031071662902832</v>
-      </c>
-      <c r="F29">
-        <v>16.12032508850098</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" t="s">
         <v>57</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>58</v>
-      </c>
-      <c r="N29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -3543,38 +3543,38 @@
       <c r="B30">
         <v>0</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
+        <v>509</v>
+      </c>
+      <c r="D30">
+        <v>8.7380180358886719</v>
+      </c>
+      <c r="E30">
+        <v>16.386295318603519</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
         <v>510</v>
       </c>
-      <c r="E30">
-        <v>8.7380180358886719</v>
-      </c>
-      <c r="F30">
-        <v>16.386295318603519</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" t="s">
         <v>511</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>512</v>
-      </c>
-      <c r="N30" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -3584,38 +3584,38 @@
       <c r="B31">
         <v>0</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>537</v>
+      </c>
+      <c r="D31">
+        <v>8.5758123397827148</v>
+      </c>
+      <c r="E31">
+        <v>16.557619094848629</v>
+      </c>
+      <c r="F31">
         <v>0.98165803437646193</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
         <v>538</v>
       </c>
-      <c r="E31">
-        <v>8.5758123397827148</v>
-      </c>
-      <c r="F31">
-        <v>16.557619094848629</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" t="s">
         <v>539</v>
       </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>540</v>
-      </c>
-      <c r="N31" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -3625,38 +3625,38 @@
       <c r="B32">
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32">
+        <v>8.9579858779907227</v>
+      </c>
+      <c r="E32">
+        <v>16.134761810302731</v>
+      </c>
+      <c r="F32">
         <v>0.98165803437646193</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
         <v>599</v>
       </c>
-      <c r="E32">
-        <v>8.9579858779907227</v>
-      </c>
-      <c r="F32">
-        <v>16.134761810302731</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" t="s">
         <v>600</v>
       </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>601</v>
-      </c>
-      <c r="N32" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -3666,38 +3666,38 @@
       <c r="B33">
         <v>0</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>8.1003017425537109</v>
+      </c>
+      <c r="E33">
+        <v>17.315244674682621</v>
+      </c>
+      <c r="F33">
         <v>0.94135083243461737</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
         <v>52</v>
       </c>
-      <c r="E33">
-        <v>8.1003017425537109</v>
-      </c>
-      <c r="F33">
-        <v>17.315244674682621</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" t="s">
         <v>53</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33" t="s">
-        <v>23</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>54</v>
-      </c>
-      <c r="N33" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -3707,38 +3707,38 @@
       <c r="B34">
         <v>0</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>8.2863540649414062</v>
+      </c>
+      <c r="E34">
+        <v>16.79936599731445</v>
+      </c>
+      <c r="F34">
         <v>0.93364496178371315</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
         <v>26</v>
       </c>
-      <c r="E34">
-        <v>8.2863540649414062</v>
-      </c>
-      <c r="F34">
-        <v>16.79936599731445</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
         <v>27</v>
       </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" t="s">
-        <v>23</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>28</v>
-      </c>
-      <c r="N34" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -3748,38 +3748,38 @@
       <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>7.655092716217041</v>
+      </c>
+      <c r="E35">
+        <v>17.4026985168457</v>
+      </c>
+      <c r="F35">
         <v>0.87569691189081078</v>
       </c>
-      <c r="D35" t="s">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
         <v>38</v>
       </c>
-      <c r="E35">
-        <v>7.655092716217041</v>
-      </c>
-      <c r="F35">
-        <v>17.4026985168457</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" t="s">
         <v>39</v>
       </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35" t="s">
-        <v>23</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>40</v>
-      </c>
-      <c r="N35" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3789,38 +3789,38 @@
       <c r="B36">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36">
+        <v>7.7314114570617676</v>
+      </c>
+      <c r="E36">
+        <v>18.292339324951168</v>
+      </c>
+      <c r="F36">
         <v>0.8367499066187305</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
         <v>266</v>
       </c>
-      <c r="E36">
-        <v>7.7314114570617676</v>
-      </c>
-      <c r="F36">
-        <v>18.292339324951168</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
         <v>267</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>268</v>
-      </c>
-      <c r="N36" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3830,38 +3830,38 @@
       <c r="B37">
         <v>0</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D37">
+        <v>7.4126243591308594</v>
+      </c>
+      <c r="E37">
+        <v>18.288763046264648</v>
+      </c>
+      <c r="F37">
         <v>0.8367499066187305</v>
       </c>
-      <c r="D37" t="s">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
         <v>294</v>
       </c>
-      <c r="E37">
-        <v>7.4126243591308594</v>
-      </c>
-      <c r="F37">
-        <v>18.288763046264648</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
         <v>295</v>
       </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>296</v>
-      </c>
-      <c r="N37" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3871,38 +3871,38 @@
       <c r="B38">
         <v>0</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D38">
+        <v>7.7201027870178223</v>
+      </c>
+      <c r="E38">
+        <v>17.808145523071289</v>
+      </c>
+      <c r="F38">
         <v>0.8367499066187305</v>
       </c>
-      <c r="D38" t="s">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
         <v>426</v>
       </c>
-      <c r="E38">
-        <v>7.7201027870178223</v>
-      </c>
-      <c r="F38">
-        <v>17.808145523071289</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>22</v>
+      </c>
+      <c r="M38" t="s">
         <v>427</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" t="s">
-        <v>23</v>
-      </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>428</v>
-      </c>
-      <c r="N38" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3912,38 +3912,38 @@
       <c r="B39">
         <v>0</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>590</v>
+      </c>
+      <c r="D39">
+        <v>7.5515871047973633</v>
+      </c>
+      <c r="E39">
+        <v>18.095212936401371</v>
+      </c>
+      <c r="F39">
         <v>0.78059994559624835</v>
       </c>
-      <c r="D39" t="s">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
         <v>591</v>
       </c>
-      <c r="E39">
-        <v>7.5515871047973633</v>
-      </c>
-      <c r="F39">
-        <v>18.095212936401371</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M39" t="s">
         <v>592</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="N39" t="s">
         <v>593</v>
-      </c>
-      <c r="N39" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3953,38 +3953,38 @@
       <c r="B40">
         <v>0</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
+      <c r="D40">
+        <v>8.9474258422851562</v>
+      </c>
+      <c r="E40">
+        <v>16.131950378417969</v>
+      </c>
+      <c r="F40">
         <v>0.7728382588787257</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
         <v>314</v>
       </c>
-      <c r="E40">
-        <v>8.9474258422851562</v>
-      </c>
-      <c r="F40">
-        <v>16.131950378417969</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
         <v>315</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>316</v>
-      </c>
-      <c r="N40" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3994,38 +3994,38 @@
       <c r="B41">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41">
+        <v>7.94354248046875</v>
+      </c>
+      <c r="E41">
+        <v>17.68896484375</v>
+      </c>
+      <c r="F41">
         <v>0.72135208535231488</v>
       </c>
-      <c r="D41" t="s">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
         <v>136</v>
       </c>
-      <c r="E41">
-        <v>7.94354248046875</v>
-      </c>
-      <c r="F41">
-        <v>17.68896484375</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" t="s">
         <v>137</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>138</v>
-      </c>
-      <c r="N41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -4035,38 +4035,38 @@
       <c r="B42">
         <v>0</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>485</v>
+      </c>
+      <c r="D42">
+        <v>7.5857148170471191</v>
+      </c>
+      <c r="E42">
+        <v>18.195365905761719</v>
+      </c>
+      <c r="F42">
         <v>0.67785966583148427</v>
       </c>
-      <c r="D42" t="s">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
         <v>486</v>
       </c>
-      <c r="E42">
-        <v>7.5857148170471191</v>
-      </c>
-      <c r="F42">
-        <v>18.195365905761719</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M42" t="s">
         <v>487</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" t="s">
-        <v>23</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>488</v>
-      </c>
-      <c r="N42" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -4076,38 +4076,38 @@
       <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>549</v>
+      </c>
+      <c r="D43">
+        <v>7.5986337661743164</v>
+      </c>
+      <c r="E43">
+        <v>18.195671081542969</v>
+      </c>
+      <c r="F43">
         <v>0.6653801367895289</v>
       </c>
-      <c r="D43" t="s">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
         <v>550</v>
       </c>
-      <c r="E43">
-        <v>7.5986337661743164</v>
-      </c>
-      <c r="F43">
-        <v>18.195671081542969</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M43" t="s">
         <v>551</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>23</v>
-      </c>
-      <c r="M43" t="s">
+      <c r="N43" t="s">
         <v>552</v>
-      </c>
-      <c r="N43" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -4117,38 +4117,38 @@
       <c r="B44">
         <v>0</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>533</v>
+      </c>
+      <c r="D44">
+        <v>7.4985556602478027</v>
+      </c>
+      <c r="E44">
+        <v>18.127798080444339</v>
+      </c>
+      <c r="F44">
         <v>0.6340413660995089</v>
       </c>
-      <c r="D44" t="s">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
         <v>534</v>
       </c>
-      <c r="E44">
-        <v>7.4985556602478027</v>
-      </c>
-      <c r="F44">
-        <v>18.127798080444339</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>22</v>
+      </c>
+      <c r="M44" t="s">
         <v>535</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="N44" t="s">
         <v>536</v>
-      </c>
-      <c r="N44" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -4158,38 +4158,38 @@
       <c r="B45">
         <v>0</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>473</v>
+      </c>
+      <c r="D45">
+        <v>7.5511112213134766</v>
+      </c>
+      <c r="E45">
+        <v>17.614532470703121</v>
+      </c>
+      <c r="F45">
         <v>0.57900343979599733</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
         <v>474</v>
       </c>
-      <c r="E45">
-        <v>7.5511112213134766</v>
-      </c>
-      <c r="F45">
-        <v>17.614532470703121</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>22</v>
+      </c>
+      <c r="M45" t="s">
         <v>475</v>
       </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" t="s">
-        <v>23</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>476</v>
-      </c>
-      <c r="N45" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -4199,17 +4199,17 @@
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>310</v>
+      <c r="C46" t="s">
+        <v>309</v>
+      </c>
+      <c r="D46">
+        <v>0.994179368019104</v>
       </c>
       <c r="E46">
-        <v>0.994179368019104</v>
+        <v>10.34446334838867</v>
       </c>
       <c r="F46">
-        <v>10.34446334838867</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4218,22 +4218,22 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K46">
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M46" t="s">
+        <v>311</v>
+      </c>
+      <c r="N46" t="s">
         <v>312</v>
-      </c>
-      <c r="N46" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -4243,17 +4243,17 @@
       <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" t="s">
-        <v>370</v>
+      <c r="C47" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47">
+        <v>1.1370164155960081</v>
       </c>
       <c r="E47">
-        <v>1.1370164155960081</v>
+        <v>10.565961837768549</v>
       </c>
       <c r="F47">
-        <v>10.565961837768549</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4262,22 +4262,22 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K47">
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M47" t="s">
+        <v>371</v>
+      </c>
+      <c r="N47" t="s">
         <v>372</v>
-      </c>
-      <c r="N47" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -4287,17 +4287,17 @@
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" t="s">
-        <v>414</v>
+      <c r="C48" t="s">
+        <v>413</v>
+      </c>
+      <c r="D48">
+        <v>0.77811378240585327</v>
       </c>
       <c r="E48">
-        <v>0.77811378240585327</v>
+        <v>10.674052238464361</v>
       </c>
       <c r="F48">
-        <v>10.674052238464361</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4306,22 +4306,22 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K48">
         <v>2</v>
       </c>
       <c r="L48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M48" t="s">
+        <v>415</v>
+      </c>
+      <c r="N48" t="s">
         <v>416</v>
-      </c>
-      <c r="N48" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -4331,17 +4331,17 @@
       <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>478</v>
+      <c r="C49" t="s">
+        <v>477</v>
+      </c>
+      <c r="D49">
+        <v>1.089921712875366</v>
       </c>
       <c r="E49">
-        <v>1.089921712875366</v>
+        <v>10.79443359375</v>
       </c>
       <c r="F49">
-        <v>10.79443359375</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4350,22 +4350,22 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K49">
         <v>2</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M49" t="s">
+        <v>479</v>
+      </c>
+      <c r="N49" t="s">
         <v>480</v>
-      </c>
-      <c r="N49" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -4375,17 +4375,17 @@
       <c r="B50">
         <v>1</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>546</v>
+      <c r="C50" t="s">
+        <v>545</v>
+      </c>
+      <c r="D50">
+        <v>1.1393836736679079</v>
       </c>
       <c r="E50">
-        <v>1.1393836736679079</v>
+        <v>10.75294303894043</v>
       </c>
       <c r="F50">
-        <v>10.75294303894043</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4394,22 +4394,22 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J50" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M50" t="s">
+        <v>547</v>
+      </c>
+      <c r="N50" t="s">
         <v>548</v>
-      </c>
-      <c r="N50" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -4419,38 +4419,38 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51">
+        <v>1.2072879076004031</v>
+      </c>
+      <c r="E51">
+        <v>10.62946605682373</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
         <v>140</v>
       </c>
-      <c r="E51">
-        <v>1.2072879076004031</v>
-      </c>
-      <c r="F51">
-        <v>10.62946605682373</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>141</v>
-      </c>
-      <c r="J51" t="s">
-        <v>142</v>
       </c>
       <c r="K51">
         <v>2</v>
       </c>
       <c r="L51" t="s">
+        <v>142</v>
+      </c>
+      <c r="M51" t="s">
         <v>143</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>144</v>
-      </c>
-      <c r="N51" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4460,38 +4460,38 @@
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52">
+        <v>-0.29807025194168091</v>
+      </c>
+      <c r="E52">
+        <v>9.290736198425293</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>140</v>
+      </c>
+      <c r="J52" t="s">
         <v>146</v>
-      </c>
-      <c r="E52">
-        <v>-0.29807025194168091</v>
-      </c>
-      <c r="F52">
-        <v>9.290736198425293</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>141</v>
-      </c>
-      <c r="J52" t="s">
-        <v>147</v>
       </c>
       <c r="K52">
         <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M52" t="s">
+        <v>147</v>
+      </c>
+      <c r="N52" t="s">
         <v>148</v>
-      </c>
-      <c r="N52" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
@@ -4501,38 +4501,38 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53">
+        <v>0.2913844883441925</v>
+      </c>
+      <c r="E53">
+        <v>9.3984441757202148</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>140</v>
+      </c>
+      <c r="J53" t="s">
         <v>150</v>
-      </c>
-      <c r="E53">
-        <v>0.2913844883441925</v>
-      </c>
-      <c r="F53">
-        <v>9.3984441757202148</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>141</v>
-      </c>
-      <c r="J53" t="s">
-        <v>151</v>
       </c>
       <c r="K53">
         <v>2</v>
       </c>
       <c r="L53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M53" t="s">
+        <v>151</v>
+      </c>
+      <c r="N53" t="s">
         <v>152</v>
-      </c>
-      <c r="N53" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -4542,38 +4542,38 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54">
+        <v>0.26104703545570368</v>
+      </c>
+      <c r="E54">
+        <v>9.2917032241821289</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>140</v>
+      </c>
+      <c r="J54" t="s">
         <v>170</v>
-      </c>
-      <c r="E54">
-        <v>0.26104703545570368</v>
-      </c>
-      <c r="F54">
-        <v>9.2917032241821289</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>141</v>
-      </c>
-      <c r="J54" t="s">
-        <v>171</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
       <c r="L54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M54" t="s">
+        <v>171</v>
+      </c>
+      <c r="N54" t="s">
         <v>172</v>
-      </c>
-      <c r="N54" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -4583,38 +4583,38 @@
       <c r="B55">
         <v>1</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55">
+        <v>1.058849692344666</v>
+      </c>
+      <c r="E55">
+        <v>10.211713790893549</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>140</v>
+      </c>
+      <c r="J55" t="s">
         <v>190</v>
-      </c>
-      <c r="E55">
-        <v>1.058849692344666</v>
-      </c>
-      <c r="F55">
-        <v>10.211713790893549</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>141</v>
-      </c>
-      <c r="J55" t="s">
-        <v>191</v>
       </c>
       <c r="K55">
         <v>2</v>
       </c>
       <c r="L55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M55" t="s">
+        <v>191</v>
+      </c>
+      <c r="N55" t="s">
         <v>192</v>
-      </c>
-      <c r="N55" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -4624,38 +4624,38 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56">
+        <v>1.318439245223999</v>
+      </c>
+      <c r="E56">
+        <v>10.02662563323975</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>140</v>
+      </c>
+      <c r="J56" t="s">
         <v>198</v>
-      </c>
-      <c r="E56">
-        <v>1.318439245223999</v>
-      </c>
-      <c r="F56">
-        <v>10.02662563323975</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>141</v>
-      </c>
-      <c r="J56" t="s">
-        <v>199</v>
       </c>
       <c r="K56">
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M56" t="s">
+        <v>199</v>
+      </c>
+      <c r="N56" t="s">
         <v>200</v>
-      </c>
-      <c r="N56" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -4665,38 +4665,38 @@
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57">
+        <v>0.42966976761817932</v>
+      </c>
+      <c r="E57">
+        <v>10.02321720123291</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>140</v>
+      </c>
+      <c r="J57" t="s">
         <v>210</v>
-      </c>
-      <c r="E57">
-        <v>0.42966976761817932</v>
-      </c>
-      <c r="F57">
-        <v>10.02321720123291</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>141</v>
-      </c>
-      <c r="J57" t="s">
-        <v>211</v>
       </c>
       <c r="K57">
         <v>2</v>
       </c>
       <c r="L57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s">
+        <v>211</v>
+      </c>
+      <c r="N57" t="s">
         <v>212</v>
-      </c>
-      <c r="N57" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -4706,38 +4706,38 @@
       <c r="B58">
         <v>1</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D58">
+        <v>1.8236782401800159E-2</v>
+      </c>
+      <c r="E58">
+        <v>9.6313676834106445</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>140</v>
+      </c>
+      <c r="J58" t="s">
         <v>226</v>
-      </c>
-      <c r="E58">
-        <v>1.8236782401800159E-2</v>
-      </c>
-      <c r="F58">
-        <v>9.6313676834106445</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>141</v>
-      </c>
-      <c r="J58" t="s">
-        <v>227</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M58" t="s">
+        <v>227</v>
+      </c>
+      <c r="N58" t="s">
         <v>228</v>
-      </c>
-      <c r="N58" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -4747,38 +4747,38 @@
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
+        <v>229</v>
+      </c>
+      <c r="D59">
+        <v>0.39655336737632751</v>
+      </c>
+      <c r="E59">
+        <v>9.8276376724243164</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>140</v>
+      </c>
+      <c r="J59" t="s">
         <v>230</v>
-      </c>
-      <c r="E59">
-        <v>0.39655336737632751</v>
-      </c>
-      <c r="F59">
-        <v>9.8276376724243164</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>141</v>
-      </c>
-      <c r="J59" t="s">
-        <v>231</v>
       </c>
       <c r="K59">
         <v>2</v>
       </c>
       <c r="L59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M59" t="s">
+        <v>231</v>
+      </c>
+      <c r="N59" t="s">
         <v>232</v>
-      </c>
-      <c r="N59" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
@@ -4788,38 +4788,38 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D60">
+        <v>0.74195057153701782</v>
+      </c>
+      <c r="E60">
+        <v>10.67768669128418</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>140</v>
+      </c>
+      <c r="J60" t="s">
         <v>302</v>
-      </c>
-      <c r="E60">
-        <v>0.74195057153701782</v>
-      </c>
-      <c r="F60">
-        <v>10.67768669128418</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>141</v>
-      </c>
-      <c r="J60" t="s">
-        <v>303</v>
       </c>
       <c r="K60">
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M60" t="s">
+        <v>303</v>
+      </c>
+      <c r="N60" t="s">
         <v>304</v>
-      </c>
-      <c r="N60" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -4829,38 +4829,38 @@
       <c r="B61">
         <v>1</v>
       </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
+        <v>381</v>
+      </c>
+      <c r="D61">
+        <v>0.63902801275253296</v>
+      </c>
+      <c r="E61">
+        <v>8.9402046203613281</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>140</v>
+      </c>
+      <c r="J61" t="s">
         <v>382</v>
-      </c>
-      <c r="E61">
-        <v>0.63902801275253296</v>
-      </c>
-      <c r="F61">
-        <v>8.9402046203613281</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>141</v>
-      </c>
-      <c r="J61" t="s">
-        <v>383</v>
       </c>
       <c r="K61">
         <v>2</v>
       </c>
       <c r="L61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M61" t="s">
+        <v>383</v>
+      </c>
+      <c r="N61" t="s">
         <v>384</v>
-      </c>
-      <c r="N61" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -4870,38 +4870,38 @@
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
+        <v>525</v>
+      </c>
+      <c r="D62">
+        <v>0.93958854675292969</v>
+      </c>
+      <c r="E62">
+        <v>10.908833503723139</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>140</v>
+      </c>
+      <c r="J62" t="s">
         <v>526</v>
-      </c>
-      <c r="E62">
-        <v>0.93958854675292969</v>
-      </c>
-      <c r="F62">
-        <v>10.908833503723139</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>141</v>
-      </c>
-      <c r="J62" t="s">
-        <v>527</v>
       </c>
       <c r="K62">
         <v>2</v>
       </c>
       <c r="L62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M62" t="s">
+        <v>527</v>
+      </c>
+      <c r="N62" t="s">
         <v>528</v>
-      </c>
-      <c r="N62" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -4911,38 +4911,38 @@
       <c r="B63">
         <v>1</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
+        <v>553</v>
+      </c>
+      <c r="D63">
+        <v>0.57967215776443481</v>
+      </c>
+      <c r="E63">
+        <v>10.284370422363279</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>140</v>
+      </c>
+      <c r="J63" t="s">
         <v>554</v>
-      </c>
-      <c r="E63">
-        <v>0.57967215776443481</v>
-      </c>
-      <c r="F63">
-        <v>10.284370422363279</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>141</v>
-      </c>
-      <c r="J63" t="s">
-        <v>555</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
       <c r="L63" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M63" t="s">
+        <v>555</v>
+      </c>
+      <c r="N63" t="s">
         <v>556</v>
-      </c>
-      <c r="N63" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -4952,38 +4952,38 @@
       <c r="B64">
         <v>1</v>
       </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
+        <v>586</v>
+      </c>
+      <c r="D64">
+        <v>0.59969013929367065</v>
+      </c>
+      <c r="E64">
+        <v>10.379342079162599</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>140</v>
+      </c>
+      <c r="J64" t="s">
         <v>587</v>
-      </c>
-      <c r="E64">
-        <v>0.59969013929367065</v>
-      </c>
-      <c r="F64">
-        <v>10.379342079162599</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>141</v>
-      </c>
-      <c r="J64" t="s">
-        <v>588</v>
       </c>
       <c r="K64">
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M64" t="s">
+        <v>588</v>
+      </c>
+      <c r="N64" t="s">
         <v>589</v>
-      </c>
-      <c r="N64" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -4993,38 +4993,38 @@
       <c r="B65">
         <v>1</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
+        <v>594</v>
+      </c>
+      <c r="D65">
+        <v>0.64294284582138062</v>
+      </c>
+      <c r="E65">
+        <v>10.4065408706665</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>140</v>
+      </c>
+      <c r="J65" t="s">
         <v>595</v>
-      </c>
-      <c r="E65">
-        <v>0.64294284582138062</v>
-      </c>
-      <c r="F65">
-        <v>10.4065408706665</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>141</v>
-      </c>
-      <c r="J65" t="s">
-        <v>596</v>
       </c>
       <c r="K65">
         <v>2</v>
       </c>
       <c r="L65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M65" t="s">
+        <v>596</v>
+      </c>
+      <c r="N65" t="s">
         <v>597</v>
-      </c>
-      <c r="N65" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -5034,38 +5034,38 @@
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
+        <v>610</v>
+      </c>
+      <c r="D66">
+        <v>0.38122206926345831</v>
+      </c>
+      <c r="E66">
+        <v>9.5594673156738281</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>140</v>
+      </c>
+      <c r="J66" t="s">
         <v>611</v>
-      </c>
-      <c r="E66">
-        <v>0.38122206926345831</v>
-      </c>
-      <c r="F66">
-        <v>9.5594673156738281</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>141</v>
-      </c>
-      <c r="J66" t="s">
-        <v>612</v>
       </c>
       <c r="K66">
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M66" t="s">
+        <v>612</v>
+      </c>
+      <c r="N66" t="s">
         <v>613</v>
-      </c>
-      <c r="N66" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5075,38 +5075,38 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
+        <v>614</v>
+      </c>
+      <c r="D67">
+        <v>0.87075799703598022</v>
+      </c>
+      <c r="E67">
+        <v>10.62965297698975</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>140</v>
+      </c>
+      <c r="J67" t="s">
         <v>615</v>
-      </c>
-      <c r="E67">
-        <v>0.87075799703598022</v>
-      </c>
-      <c r="F67">
-        <v>10.62965297698975</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>141</v>
-      </c>
-      <c r="J67" t="s">
-        <v>616</v>
       </c>
       <c r="K67">
         <v>2</v>
       </c>
       <c r="L67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M67" t="s">
+        <v>616</v>
+      </c>
+      <c r="N67" t="s">
         <v>617</v>
-      </c>
-      <c r="N67" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5116,38 +5116,38 @@
       <c r="B68">
         <v>1</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>573</v>
+      </c>
+      <c r="D68">
+        <v>-0.41749382019042969</v>
+      </c>
+      <c r="E68">
+        <v>9.1956853866577148</v>
+      </c>
+      <c r="F68">
         <v>0.96849662402644243</v>
       </c>
-      <c r="D68" t="s">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>140</v>
+      </c>
+      <c r="J68" t="s">
         <v>574</v>
-      </c>
-      <c r="E68">
-        <v>-0.41749382019042969</v>
-      </c>
-      <c r="F68">
-        <v>9.1956853866577148</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>141</v>
-      </c>
-      <c r="J68" t="s">
-        <v>575</v>
       </c>
       <c r="K68">
         <v>2</v>
       </c>
       <c r="L68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M68" t="s">
+        <v>575</v>
+      </c>
+      <c r="N68" t="s">
         <v>576</v>
-      </c>
-      <c r="N68" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -5157,38 +5157,38 @@
       <c r="B69">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>461</v>
+      </c>
+      <c r="D69">
+        <v>1.456960082054138</v>
+      </c>
+      <c r="E69">
+        <v>9.6292924880981445</v>
+      </c>
+      <c r="F69">
         <v>0.94534663086182147</v>
       </c>
-      <c r="D69" t="s">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>140</v>
+      </c>
+      <c r="J69" t="s">
         <v>462</v>
-      </c>
-      <c r="E69">
-        <v>1.456960082054138</v>
-      </c>
-      <c r="F69">
-        <v>9.6292924880981445</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>141</v>
-      </c>
-      <c r="J69" t="s">
-        <v>463</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M69" t="s">
+        <v>463</v>
+      </c>
+      <c r="N69" t="s">
         <v>464</v>
-      </c>
-      <c r="N69" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -5198,38 +5198,38 @@
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>497</v>
+      </c>
+      <c r="D70">
+        <v>0.25104328989982599</v>
+      </c>
+      <c r="E70">
+        <v>9.0699386596679688</v>
+      </c>
+      <c r="F70">
         <v>0.91734096775062401</v>
       </c>
-      <c r="D70" t="s">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>140</v>
+      </c>
+      <c r="J70" t="s">
         <v>498</v>
-      </c>
-      <c r="E70">
-        <v>0.25104328989982599</v>
-      </c>
-      <c r="F70">
-        <v>9.0699386596679688</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>141</v>
-      </c>
-      <c r="J70" t="s">
-        <v>499</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
       <c r="L70" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M70" t="s">
+        <v>499</v>
+      </c>
+      <c r="N70" t="s">
         <v>500</v>
-      </c>
-      <c r="N70" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -5239,38 +5239,38 @@
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>465</v>
+      </c>
+      <c r="D71">
+        <v>-0.48217865824699402</v>
+      </c>
+      <c r="E71">
+        <v>9.1515722274780273</v>
+      </c>
+      <c r="F71">
         <v>0.88771839524760487</v>
       </c>
-      <c r="D71" t="s">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71" t="s">
         <v>466</v>
-      </c>
-      <c r="E71">
-        <v>-0.48217865824699402</v>
-      </c>
-      <c r="F71">
-        <v>9.1515722274780273</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>141</v>
-      </c>
-      <c r="J71" t="s">
-        <v>467</v>
       </c>
       <c r="K71">
         <v>2</v>
       </c>
       <c r="L71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M71" t="s">
+        <v>467</v>
+      </c>
+      <c r="N71" t="s">
         <v>468</v>
-      </c>
-      <c r="N71" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -5280,38 +5280,38 @@
       <c r="B72">
         <v>-1</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
+        <v>453</v>
+      </c>
+      <c r="D72">
+        <v>-0.3835662305355072</v>
+      </c>
+      <c r="E72">
+        <v>9.2423887252807617</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>140</v>
+      </c>
+      <c r="J72" t="s">
         <v>454</v>
-      </c>
-      <c r="E72">
-        <v>-0.3835662305355072</v>
-      </c>
-      <c r="F72">
-        <v>9.2423887252807617</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>141</v>
-      </c>
-      <c r="J72" t="s">
-        <v>455</v>
       </c>
       <c r="K72">
         <v>2</v>
       </c>
       <c r="L72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M72" t="s">
+        <v>455</v>
+      </c>
+      <c r="N72" t="s">
         <v>456</v>
-      </c>
-      <c r="N72" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -5321,38 +5321,38 @@
       <c r="B73">
         <v>-1</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
+        <v>577</v>
+      </c>
+      <c r="D73">
+        <v>1.5022610425949099</v>
+      </c>
+      <c r="E73">
+        <v>9.543675422668457</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>140</v>
+      </c>
+      <c r="J73" t="s">
         <v>578</v>
-      </c>
-      <c r="E73">
-        <v>1.5022610425949099</v>
-      </c>
-      <c r="F73">
-        <v>9.543675422668457</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>141</v>
-      </c>
-      <c r="J73" t="s">
-        <v>579</v>
       </c>
       <c r="K73">
         <v>2</v>
       </c>
       <c r="L73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M73" t="s">
+        <v>579</v>
+      </c>
+      <c r="N73" t="s">
         <v>580</v>
-      </c>
-      <c r="N73" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -5362,17 +5362,17 @@
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="s">
-        <v>108</v>
+      <c r="C74" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74">
+        <v>-3.2345070838928218</v>
       </c>
       <c r="E74">
-        <v>-3.2345070838928218</v>
+        <v>7.9619655609130859</v>
       </c>
       <c r="F74">
-        <v>7.9619655609130859</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -5381,22 +5381,22 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M74" t="s">
+        <v>109</v>
+      </c>
+      <c r="N74" t="s">
         <v>110</v>
-      </c>
-      <c r="N74" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -5406,17 +5406,17 @@
       <c r="B75">
         <v>1</v>
       </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>154</v>
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>-2.9540784358978271</v>
       </c>
       <c r="E75">
-        <v>-2.9540784358978271</v>
+        <v>7.900139331817627</v>
       </c>
       <c r="F75">
-        <v>7.900139331817627</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -5425,22 +5425,22 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K75">
         <v>3</v>
       </c>
       <c r="L75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M75" t="s">
+        <v>155</v>
+      </c>
+      <c r="N75" t="s">
         <v>156</v>
-      </c>
-      <c r="N75" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -5450,17 +5450,17 @@
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" t="s">
-        <v>174</v>
+      <c r="C76" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76">
+        <v>-2.8270702362060551</v>
       </c>
       <c r="E76">
-        <v>-2.8270702362060551</v>
+        <v>7.9309854507446289</v>
       </c>
       <c r="F76">
-        <v>7.9309854507446289</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -5469,22 +5469,22 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K76">
         <v>3</v>
       </c>
       <c r="L76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M76" t="s">
+        <v>175</v>
+      </c>
+      <c r="N76" t="s">
         <v>176</v>
-      </c>
-      <c r="N76" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
@@ -5494,17 +5494,17 @@
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>182</v>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77">
+        <v>-2.5483758449554439</v>
       </c>
       <c r="E77">
-        <v>-2.5483758449554439</v>
+        <v>7.9549894332885742</v>
       </c>
       <c r="F77">
-        <v>7.9549894332885742</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -5513,22 +5513,22 @@
         <v>3</v>
       </c>
       <c r="I77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M77" t="s">
+        <v>183</v>
+      </c>
+      <c r="N77" t="s">
         <v>184</v>
-      </c>
-      <c r="N77" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5538,17 +5538,17 @@
       <c r="B78">
         <v>1</v>
       </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>194</v>
+      <c r="C78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78">
+        <v>-2.3946361541748051</v>
       </c>
       <c r="E78">
-        <v>-2.3946361541748051</v>
+        <v>8.3127527236938477</v>
       </c>
       <c r="F78">
-        <v>8.3127527236938477</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -5557,22 +5557,22 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K78">
         <v>3</v>
       </c>
       <c r="L78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M78" t="s">
+        <v>195</v>
+      </c>
+      <c r="N78" t="s">
         <v>196</v>
-      </c>
-      <c r="N78" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -5582,17 +5582,17 @@
       <c r="B79">
         <v>1</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>374</v>
+      <c r="C79" t="s">
+        <v>373</v>
+      </c>
+      <c r="D79">
+        <v>-2.751066923141479</v>
       </c>
       <c r="E79">
-        <v>-2.751066923141479</v>
+        <v>8.1238899230957031</v>
       </c>
       <c r="F79">
-        <v>8.1238899230957031</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -5601,22 +5601,22 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J79" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K79">
         <v>3</v>
       </c>
       <c r="L79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N79" t="s">
         <v>376</v>
-      </c>
-      <c r="N79" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -5626,38 +5626,38 @@
       <c r="B80">
         <v>1</v>
       </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D80">
+        <v>-3.2675685882568359</v>
+      </c>
+      <c r="E80">
+        <v>7.6427602767944336</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
         <v>78</v>
       </c>
-      <c r="E80">
-        <v>-3.2675685882568359</v>
-      </c>
-      <c r="F80">
-        <v>7.6427602767944336</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>79</v>
-      </c>
-      <c r="J80" t="s">
-        <v>80</v>
       </c>
       <c r="K80">
         <v>3</v>
       </c>
       <c r="L80" t="s">
+        <v>80</v>
+      </c>
+      <c r="M80" t="s">
         <v>81</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>82</v>
-      </c>
-      <c r="N80" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -5667,38 +5667,38 @@
       <c r="B81">
         <v>1</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81">
+        <v>-3.1059167385101318</v>
+      </c>
+      <c r="E81">
+        <v>7.7893228530883789</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>78</v>
+      </c>
+      <c r="J81" t="s">
         <v>178</v>
-      </c>
-      <c r="E81">
-        <v>-3.1059167385101318</v>
-      </c>
-      <c r="F81">
-        <v>7.7893228530883789</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>79</v>
-      </c>
-      <c r="J81" t="s">
-        <v>179</v>
       </c>
       <c r="K81">
         <v>3</v>
       </c>
       <c r="L81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M81" t="s">
+        <v>179</v>
+      </c>
+      <c r="N81" t="s">
         <v>180</v>
-      </c>
-      <c r="N81" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -5708,38 +5708,38 @@
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82">
+        <v>-2.322931289672852</v>
+      </c>
+      <c r="E82">
+        <v>8.7511844635009766</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s">
         <v>202</v>
-      </c>
-      <c r="E82">
-        <v>-2.322931289672852</v>
-      </c>
-      <c r="F82">
-        <v>8.7511844635009766</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>79</v>
-      </c>
-      <c r="J82" t="s">
-        <v>203</v>
       </c>
       <c r="K82">
         <v>3</v>
       </c>
       <c r="L82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M82" t="s">
+        <v>203</v>
+      </c>
+      <c r="N82" t="s">
         <v>204</v>
-      </c>
-      <c r="N82" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -5749,38 +5749,38 @@
       <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
+        <v>205</v>
+      </c>
+      <c r="D83">
+        <v>-2.494001150131226</v>
+      </c>
+      <c r="E83">
+        <v>8.7119722366333008</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s">
         <v>206</v>
-      </c>
-      <c r="E83">
-        <v>-2.494001150131226</v>
-      </c>
-      <c r="F83">
-        <v>8.7119722366333008</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>79</v>
-      </c>
-      <c r="J83" t="s">
-        <v>207</v>
       </c>
       <c r="K83">
         <v>3</v>
       </c>
       <c r="L83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M83" t="s">
+        <v>207</v>
+      </c>
+      <c r="N83" t="s">
         <v>208</v>
-      </c>
-      <c r="N83" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
@@ -5790,38 +5790,38 @@
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C84" t="s">
+        <v>245</v>
+      </c>
+      <c r="D84">
+        <v>-3.5704407691955571</v>
+      </c>
+      <c r="E84">
+        <v>7.6508588790893546</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s">
         <v>246</v>
-      </c>
-      <c r="E84">
-        <v>-3.5704407691955571</v>
-      </c>
-      <c r="F84">
-        <v>7.6508588790893546</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>79</v>
-      </c>
-      <c r="J84" t="s">
-        <v>247</v>
       </c>
       <c r="K84">
         <v>3</v>
       </c>
       <c r="L84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M84" t="s">
+        <v>247</v>
+      </c>
+      <c r="N84" t="s">
         <v>248</v>
-      </c>
-      <c r="N84" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -5831,38 +5831,38 @@
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s">
+        <v>253</v>
+      </c>
+      <c r="D85">
+        <v>-3.550634622573853</v>
+      </c>
+      <c r="E85">
+        <v>7.6369481086730957</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>78</v>
+      </c>
+      <c r="J85" t="s">
         <v>254</v>
-      </c>
-      <c r="E85">
-        <v>-3.550634622573853</v>
-      </c>
-      <c r="F85">
-        <v>7.6369481086730957</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>79</v>
-      </c>
-      <c r="J85" t="s">
-        <v>255</v>
       </c>
       <c r="K85">
         <v>3</v>
       </c>
       <c r="L85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M85" t="s">
+        <v>255</v>
+      </c>
+      <c r="N85" t="s">
         <v>256</v>
-      </c>
-      <c r="N85" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -5872,38 +5872,38 @@
       <c r="B86">
         <v>1</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
+        <v>289</v>
+      </c>
+      <c r="D86">
+        <v>-2.2488620281219478</v>
+      </c>
+      <c r="E86">
+        <v>8.3591165542602539</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s">
         <v>290</v>
-      </c>
-      <c r="E86">
-        <v>-2.2488620281219478</v>
-      </c>
-      <c r="F86">
-        <v>8.3591165542602539</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>79</v>
-      </c>
-      <c r="J86" t="s">
-        <v>291</v>
       </c>
       <c r="K86">
         <v>3</v>
       </c>
       <c r="L86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M86" t="s">
+        <v>291</v>
+      </c>
+      <c r="N86" t="s">
         <v>292</v>
-      </c>
-      <c r="N86" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -5913,38 +5913,38 @@
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s">
+        <v>349</v>
+      </c>
+      <c r="D87">
+        <v>-2.5909967422485352</v>
+      </c>
+      <c r="E87">
+        <v>8.1144933700561523</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s">
         <v>350</v>
-      </c>
-      <c r="E87">
-        <v>-2.5909967422485352</v>
-      </c>
-      <c r="F87">
-        <v>8.1144933700561523</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>79</v>
-      </c>
-      <c r="J87" t="s">
-        <v>351</v>
       </c>
       <c r="K87">
         <v>3</v>
       </c>
       <c r="L87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M87" t="s">
+        <v>351</v>
+      </c>
+      <c r="N87" t="s">
         <v>352</v>
-      </c>
-      <c r="N87" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -5954,38 +5954,38 @@
       <c r="B88">
         <v>1</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s">
+        <v>437</v>
+      </c>
+      <c r="D88">
+        <v>-2.6376106739044189</v>
+      </c>
+      <c r="E88">
+        <v>8.6118593215942383</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s">
         <v>438</v>
-      </c>
-      <c r="E88">
-        <v>-2.6376106739044189</v>
-      </c>
-      <c r="F88">
-        <v>8.6118593215942383</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>79</v>
-      </c>
-      <c r="J88" t="s">
-        <v>439</v>
       </c>
       <c r="K88">
         <v>3</v>
       </c>
       <c r="L88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M88" t="s">
+        <v>439</v>
+      </c>
+      <c r="N88" t="s">
         <v>440</v>
-      </c>
-      <c r="N88" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -5995,38 +5995,38 @@
       <c r="B89">
         <v>1</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
+        <v>441</v>
+      </c>
+      <c r="D89">
+        <v>-2.470456600189209</v>
+      </c>
+      <c r="E89">
+        <v>8.8814458847045898</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s">
         <v>442</v>
-      </c>
-      <c r="E89">
-        <v>-2.470456600189209</v>
-      </c>
-      <c r="F89">
-        <v>8.8814458847045898</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>79</v>
-      </c>
-      <c r="J89" t="s">
-        <v>443</v>
       </c>
       <c r="K89">
         <v>3</v>
       </c>
       <c r="L89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M89" t="s">
+        <v>443</v>
+      </c>
+      <c r="N89" t="s">
         <v>444</v>
-      </c>
-      <c r="N89" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -6036,38 +6036,38 @@
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s">
+        <v>445</v>
+      </c>
+      <c r="D90">
+        <v>-2.6452805995941162</v>
+      </c>
+      <c r="E90">
+        <v>8.2447509765625</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s">
         <v>446</v>
-      </c>
-      <c r="E90">
-        <v>-2.6452805995941162</v>
-      </c>
-      <c r="F90">
-        <v>8.2447509765625</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>79</v>
-      </c>
-      <c r="J90" t="s">
-        <v>447</v>
       </c>
       <c r="K90">
         <v>3</v>
       </c>
       <c r="L90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M90" t="s">
+        <v>447</v>
+      </c>
+      <c r="N90" t="s">
         <v>448</v>
-      </c>
-      <c r="N90" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
@@ -6077,38 +6077,38 @@
       <c r="B91">
         <v>1</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s">
+        <v>517</v>
+      </c>
+      <c r="D91">
+        <v>-2.2308449745178218</v>
+      </c>
+      <c r="E91">
+        <v>8.3313846588134766</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>78</v>
+      </c>
+      <c r="J91" t="s">
         <v>518</v>
-      </c>
-      <c r="E91">
-        <v>-2.2308449745178218</v>
-      </c>
-      <c r="F91">
-        <v>8.3313846588134766</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>79</v>
-      </c>
-      <c r="J91" t="s">
-        <v>519</v>
       </c>
       <c r="K91">
         <v>3</v>
       </c>
       <c r="L91" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M91" t="s">
+        <v>519</v>
+      </c>
+      <c r="N91" t="s">
         <v>520</v>
-      </c>
-      <c r="N91" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
@@ -6118,38 +6118,38 @@
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92">
+        <v>-3.524960994720459</v>
+      </c>
+      <c r="E92">
+        <v>7.6432695388793954</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>78</v>
+      </c>
+      <c r="J92" t="s">
         <v>154</v>
-      </c>
-      <c r="E92">
-        <v>-3.524960994720459</v>
-      </c>
-      <c r="F92">
-        <v>7.6432695388793954</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="I92" t="s">
-        <v>79</v>
-      </c>
-      <c r="J92" t="s">
-        <v>155</v>
       </c>
       <c r="K92">
         <v>3</v>
       </c>
       <c r="L92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N92" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
@@ -6159,38 +6159,38 @@
       <c r="B93">
         <v>1</v>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
+        <v>630</v>
+      </c>
+      <c r="D93">
+        <v>-3.454283714294434</v>
+      </c>
+      <c r="E93">
+        <v>7.7018213272094727</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>78</v>
+      </c>
+      <c r="J93" t="s">
         <v>631</v>
-      </c>
-      <c r="E93">
-        <v>-3.454283714294434</v>
-      </c>
-      <c r="F93">
-        <v>7.7018213272094727</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
-        <v>79</v>
-      </c>
-      <c r="J93" t="s">
-        <v>632</v>
       </c>
       <c r="K93">
         <v>3</v>
       </c>
       <c r="L93" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M93" t="s">
+        <v>632</v>
+      </c>
+      <c r="N93" t="s">
         <v>633</v>
-      </c>
-      <c r="N93" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
@@ -6200,38 +6200,38 @@
       <c r="B94">
         <v>1</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94">
+        <v>-0.70998197793960571</v>
+      </c>
+      <c r="E94">
+        <v>9.0551595687866211</v>
+      </c>
+      <c r="F94">
         <v>0.98953296786549105</v>
       </c>
-      <c r="D94" t="s">
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>78</v>
+      </c>
+      <c r="J94" t="s">
         <v>218</v>
-      </c>
-      <c r="E94">
-        <v>-0.70998197793960571</v>
-      </c>
-      <c r="F94">
-        <v>9.0551595687866211</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>79</v>
-      </c>
-      <c r="J94" t="s">
-        <v>219</v>
       </c>
       <c r="K94">
         <v>3</v>
       </c>
       <c r="L94" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M94" t="s">
+        <v>219</v>
+      </c>
+      <c r="N94" t="s">
         <v>220</v>
-      </c>
-      <c r="N94" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
@@ -6241,38 +6241,38 @@
       <c r="B95">
         <v>1</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95">
+        <v>-2.342493057250977</v>
+      </c>
+      <c r="E95">
+        <v>9.0185165405273438</v>
+      </c>
+      <c r="F95">
         <v>0.96129536916439706</v>
       </c>
-      <c r="D95" t="s">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s">
         <v>286</v>
-      </c>
-      <c r="E95">
-        <v>-2.342493057250977</v>
-      </c>
-      <c r="F95">
-        <v>9.0185165405273438</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>79</v>
-      </c>
-      <c r="J95" t="s">
-        <v>287</v>
       </c>
       <c r="K95">
         <v>3</v>
       </c>
       <c r="L95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M95" t="s">
+        <v>287</v>
+      </c>
+      <c r="N95" t="s">
         <v>288</v>
-      </c>
-      <c r="N95" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
@@ -6282,38 +6282,38 @@
       <c r="B96">
         <v>1</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96">
+        <v>-2.3056488037109379</v>
+      </c>
+      <c r="E96">
+        <v>8.9824981689453125</v>
+      </c>
+      <c r="F96">
         <v>0.95496197292608354</v>
       </c>
-      <c r="D96" t="s">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s">
         <v>234</v>
-      </c>
-      <c r="E96">
-        <v>-2.3056488037109379</v>
-      </c>
-      <c r="F96">
-        <v>8.9824981689453125</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s">
-        <v>235</v>
       </c>
       <c r="K96">
         <v>3</v>
       </c>
       <c r="L96" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M96" t="s">
+        <v>235</v>
+      </c>
+      <c r="N96" t="s">
         <v>236</v>
-      </c>
-      <c r="N96" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -6323,38 +6323,38 @@
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+      <c r="D97">
+        <v>-2.461228609085083</v>
+      </c>
+      <c r="E97">
+        <v>8.9323348999023438</v>
+      </c>
+      <c r="F97">
         <v>0.93849629918965827</v>
       </c>
-      <c r="D97" t="s">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>78</v>
+      </c>
+      <c r="J97" t="s">
         <v>214</v>
-      </c>
-      <c r="E97">
-        <v>-2.461228609085083</v>
-      </c>
-      <c r="F97">
-        <v>8.9323348999023438</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s">
-        <v>215</v>
       </c>
       <c r="K97">
         <v>3</v>
       </c>
       <c r="L97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M97" t="s">
+        <v>215</v>
+      </c>
+      <c r="N97" t="s">
         <v>216</v>
-      </c>
-      <c r="N97" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
@@ -6364,17 +6364,17 @@
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98" t="s">
-        <v>88</v>
+      <c r="C98" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98">
+        <v>4.8547267913818359</v>
       </c>
       <c r="E98">
-        <v>4.8547267913818359</v>
+        <v>8.0796566009521484</v>
       </c>
       <c r="F98">
-        <v>8.0796566009521484</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -6383,22 +6383,22 @@
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K98">
         <v>4</v>
       </c>
       <c r="L98" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M98" t="s">
+        <v>89</v>
+      </c>
+      <c r="N98" t="s">
         <v>90</v>
-      </c>
-      <c r="N98" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -6408,17 +6408,17 @@
       <c r="B99">
         <v>1</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99" t="s">
-        <v>162</v>
+      <c r="C99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99">
+        <v>4.4011006355285636</v>
       </c>
       <c r="E99">
-        <v>4.4011006355285636</v>
+        <v>7.7545690536499023</v>
       </c>
       <c r="F99">
-        <v>7.7545690536499023</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -6427,22 +6427,22 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J99" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K99">
         <v>4</v>
       </c>
       <c r="L99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M99" t="s">
+        <v>163</v>
+      </c>
+      <c r="N99" t="s">
         <v>164</v>
-      </c>
-      <c r="N99" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
@@ -6452,17 +6452,17 @@
       <c r="B100">
         <v>1</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>306</v>
+      <c r="C100" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100">
+        <v>4.2483487129211426</v>
       </c>
       <c r="E100">
-        <v>4.2483487129211426</v>
+        <v>8.117487907409668</v>
       </c>
       <c r="F100">
-        <v>8.117487907409668</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -6471,22 +6471,22 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K100">
         <v>4</v>
       </c>
       <c r="L100" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M100" t="s">
+        <v>307</v>
+      </c>
+      <c r="N100" t="s">
         <v>308</v>
-      </c>
-      <c r="N100" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -6496,17 +6496,17 @@
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101" t="s">
-        <v>322</v>
+      <c r="C101" t="s">
+        <v>321</v>
+      </c>
+      <c r="D101">
+        <v>4.7760891914367676</v>
       </c>
       <c r="E101">
-        <v>4.7760891914367676</v>
+        <v>7.9635477066040039</v>
       </c>
       <c r="F101">
-        <v>7.9635477066040039</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -6515,22 +6515,22 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K101">
         <v>4</v>
       </c>
       <c r="L101" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M101" t="s">
+        <v>323</v>
+      </c>
+      <c r="N101" t="s">
         <v>324</v>
-      </c>
-      <c r="N101" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
@@ -6540,17 +6540,17 @@
       <c r="B102">
         <v>1</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" t="s">
-        <v>354</v>
+      <c r="C102" t="s">
+        <v>353</v>
+      </c>
+      <c r="D102">
+        <v>4.654543399810791</v>
       </c>
       <c r="E102">
-        <v>4.654543399810791</v>
+        <v>8.110661506652832</v>
       </c>
       <c r="F102">
-        <v>8.110661506652832</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -6559,22 +6559,22 @@
         <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K102">
         <v>4</v>
       </c>
       <c r="L102" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M102" t="s">
+        <v>355</v>
+      </c>
+      <c r="N102" t="s">
         <v>356</v>
-      </c>
-      <c r="N102" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -6584,38 +6584,38 @@
       <c r="B103">
         <v>1</v>
       </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103">
+        <v>4.2377157211303711</v>
+      </c>
+      <c r="E103">
+        <v>8.7665567398071289</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
         <v>64</v>
       </c>
-      <c r="E103">
-        <v>4.2377157211303711</v>
-      </c>
-      <c r="F103">
-        <v>8.7665567398071289</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>65</v>
-      </c>
-      <c r="J103" t="s">
-        <v>66</v>
       </c>
       <c r="K103">
         <v>4</v>
       </c>
       <c r="L103" t="s">
+        <v>66</v>
+      </c>
+      <c r="M103" t="s">
         <v>67</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>68</v>
-      </c>
-      <c r="N103" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -6625,38 +6625,38 @@
       <c r="B104">
         <v>1</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104">
+        <v>5.1543607711791992</v>
+      </c>
+      <c r="E104">
+        <v>8.0235204696655273</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>64</v>
+      </c>
+      <c r="J104" t="s">
         <v>70</v>
-      </c>
-      <c r="E104">
-        <v>5.1543607711791992</v>
-      </c>
-      <c r="F104">
-        <v>8.0235204696655273</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="I104" t="s">
-        <v>65</v>
-      </c>
-      <c r="J104" t="s">
-        <v>71</v>
       </c>
       <c r="K104">
         <v>4</v>
       </c>
       <c r="L104" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M104" t="s">
+        <v>71</v>
+      </c>
+      <c r="N104" t="s">
         <v>72</v>
-      </c>
-      <c r="N104" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
@@ -6666,38 +6666,38 @@
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D105">
+        <v>5.2536129951477051</v>
+      </c>
+      <c r="E105">
+        <v>8.130162239074707</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>64</v>
+      </c>
+      <c r="J105" t="s">
         <v>74</v>
-      </c>
-      <c r="E105">
-        <v>5.2536129951477051</v>
-      </c>
-      <c r="F105">
-        <v>8.130162239074707</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>65</v>
-      </c>
-      <c r="J105" t="s">
-        <v>75</v>
       </c>
       <c r="K105">
         <v>4</v>
       </c>
       <c r="L105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M105" t="s">
+        <v>75</v>
+      </c>
+      <c r="N105" t="s">
         <v>76</v>
-      </c>
-      <c r="N105" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
@@ -6707,38 +6707,38 @@
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106">
+        <v>4.9959454536437988</v>
+      </c>
+      <c r="E106">
+        <v>8.2659263610839844</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>64</v>
+      </c>
+      <c r="J106" t="s">
         <v>92</v>
-      </c>
-      <c r="E106">
-        <v>4.9959454536437988</v>
-      </c>
-      <c r="F106">
-        <v>8.2659263610839844</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>65</v>
-      </c>
-      <c r="J106" t="s">
-        <v>93</v>
       </c>
       <c r="K106">
         <v>4</v>
       </c>
       <c r="L106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M106" t="s">
+        <v>93</v>
+      </c>
+      <c r="N106" t="s">
         <v>94</v>
-      </c>
-      <c r="N106" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
@@ -6748,38 +6748,38 @@
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107">
+        <v>4.9256863594055176</v>
+      </c>
+      <c r="E107">
+        <v>8.5096836090087891</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>64</v>
+      </c>
+      <c r="J107" t="s">
         <v>120</v>
-      </c>
-      <c r="E107">
-        <v>4.9256863594055176</v>
-      </c>
-      <c r="F107">
-        <v>8.5096836090087891</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
-        <v>65</v>
-      </c>
-      <c r="J107" t="s">
-        <v>121</v>
       </c>
       <c r="K107">
         <v>4</v>
       </c>
       <c r="L107" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M107" t="s">
+        <v>121</v>
+      </c>
+      <c r="N107" t="s">
         <v>122</v>
-      </c>
-      <c r="N107" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
@@ -6789,38 +6789,38 @@
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
+        <v>123</v>
+      </c>
+      <c r="D108">
+        <v>5.3613433837890616</v>
+      </c>
+      <c r="E108">
+        <v>9.1137704849243164</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>64</v>
+      </c>
+      <c r="J108" t="s">
         <v>124</v>
-      </c>
-      <c r="E108">
-        <v>5.3613433837890616</v>
-      </c>
-      <c r="F108">
-        <v>9.1137704849243164</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>65</v>
-      </c>
-      <c r="J108" t="s">
-        <v>125</v>
       </c>
       <c r="K108">
         <v>4</v>
       </c>
       <c r="L108" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M108" t="s">
+        <v>125</v>
+      </c>
+      <c r="N108" t="s">
         <v>126</v>
-      </c>
-      <c r="N108" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
@@ -6830,38 +6830,38 @@
       <c r="B109">
         <v>1</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109">
+        <v>5.3852839469909668</v>
+      </c>
+      <c r="E109">
+        <v>8.739741325378418</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>64</v>
+      </c>
+      <c r="J109" t="s">
         <v>128</v>
-      </c>
-      <c r="E109">
-        <v>5.3852839469909668</v>
-      </c>
-      <c r="F109">
-        <v>8.739741325378418</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>65</v>
-      </c>
-      <c r="J109" t="s">
-        <v>129</v>
       </c>
       <c r="K109">
         <v>4</v>
       </c>
       <c r="L109" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M109" t="s">
+        <v>129</v>
+      </c>
+      <c r="N109" t="s">
         <v>130</v>
-      </c>
-      <c r="N109" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
@@ -6871,38 +6871,38 @@
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C110" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110">
+        <v>4.5521211624145508</v>
+      </c>
+      <c r="E110">
+        <v>8.6835536956787109</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>64</v>
+      </c>
+      <c r="J110" t="s">
         <v>158</v>
-      </c>
-      <c r="E110">
-        <v>4.5521211624145508</v>
-      </c>
-      <c r="F110">
-        <v>8.6835536956787109</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="I110" t="s">
-        <v>65</v>
-      </c>
-      <c r="J110" t="s">
-        <v>159</v>
       </c>
       <c r="K110">
         <v>4</v>
       </c>
       <c r="L110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M110" t="s">
+        <v>159</v>
+      </c>
+      <c r="N110" t="s">
         <v>160</v>
-      </c>
-      <c r="N110" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
@@ -6912,38 +6912,38 @@
       <c r="B111">
         <v>1</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s">
+        <v>325</v>
+      </c>
+      <c r="D111">
+        <v>4.1567625999450684</v>
+      </c>
+      <c r="E111">
+        <v>7.7703261375427246</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>64</v>
+      </c>
+      <c r="J111" t="s">
         <v>326</v>
-      </c>
-      <c r="E111">
-        <v>4.1567625999450684</v>
-      </c>
-      <c r="F111">
-        <v>7.7703261375427246</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
-        <v>65</v>
-      </c>
-      <c r="J111" t="s">
-        <v>327</v>
       </c>
       <c r="K111">
         <v>4</v>
       </c>
       <c r="L111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M111" t="s">
+        <v>327</v>
+      </c>
+      <c r="N111" t="s">
         <v>328</v>
-      </c>
-      <c r="N111" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
@@ -6953,38 +6953,38 @@
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112">
+        <v>5.5018172264099121</v>
+      </c>
+      <c r="E112">
+        <v>8.9499044418334961</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>64</v>
+      </c>
+      <c r="J112" t="s">
         <v>338</v>
-      </c>
-      <c r="E112">
-        <v>5.5018172264099121</v>
-      </c>
-      <c r="F112">
-        <v>8.9499044418334961</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>65</v>
-      </c>
-      <c r="J112" t="s">
-        <v>339</v>
       </c>
       <c r="K112">
         <v>4</v>
       </c>
       <c r="L112" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M112" t="s">
+        <v>339</v>
+      </c>
+      <c r="N112" t="s">
         <v>340</v>
-      </c>
-      <c r="N112" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -6994,38 +6994,38 @@
       <c r="B113">
         <v>1</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C113" t="s">
+        <v>341</v>
+      </c>
+      <c r="D113">
+        <v>5.4657483100891113</v>
+      </c>
+      <c r="E113">
+        <v>9.0807952880859375</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>64</v>
+      </c>
+      <c r="J113" t="s">
         <v>342</v>
-      </c>
-      <c r="E113">
-        <v>5.4657483100891113</v>
-      </c>
-      <c r="F113">
-        <v>9.0807952880859375</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>65</v>
-      </c>
-      <c r="J113" t="s">
-        <v>343</v>
       </c>
       <c r="K113">
         <v>4</v>
       </c>
       <c r="L113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M113" t="s">
+        <v>343</v>
+      </c>
+      <c r="N113" t="s">
         <v>344</v>
-      </c>
-      <c r="N113" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -7035,38 +7035,38 @@
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
+        <v>361</v>
+      </c>
+      <c r="D114">
+        <v>5.1236133575439453</v>
+      </c>
+      <c r="E114">
+        <v>8.467860221862793</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>64</v>
+      </c>
+      <c r="J114" t="s">
         <v>362</v>
-      </c>
-      <c r="E114">
-        <v>5.1236133575439453</v>
-      </c>
-      <c r="F114">
-        <v>8.467860221862793</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="I114" t="s">
-        <v>65</v>
-      </c>
-      <c r="J114" t="s">
-        <v>363</v>
       </c>
       <c r="K114">
         <v>4</v>
       </c>
       <c r="L114" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M114" t="s">
+        <v>363</v>
+      </c>
+      <c r="N114" t="s">
         <v>364</v>
-      </c>
-      <c r="N114" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
@@ -7076,38 +7076,38 @@
       <c r="B115">
         <v>1</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
+        <v>377</v>
+      </c>
+      <c r="D115">
+        <v>3.941215991973877</v>
+      </c>
+      <c r="E115">
+        <v>8.4968929290771484</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>64</v>
+      </c>
+      <c r="J115" t="s">
         <v>378</v>
-      </c>
-      <c r="E115">
-        <v>3.941215991973877</v>
-      </c>
-      <c r="F115">
-        <v>8.4968929290771484</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="I115" t="s">
-        <v>65</v>
-      </c>
-      <c r="J115" t="s">
-        <v>379</v>
       </c>
       <c r="K115">
         <v>4</v>
       </c>
       <c r="L115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M115" t="s">
+        <v>379</v>
+      </c>
+      <c r="N115" t="s">
         <v>380</v>
-      </c>
-      <c r="N115" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
@@ -7117,38 +7117,38 @@
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s">
+        <v>385</v>
+      </c>
+      <c r="D116">
+        <v>3.896589040756226</v>
+      </c>
+      <c r="E116">
+        <v>7.5385150909423828</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>64</v>
+      </c>
+      <c r="J116" t="s">
         <v>386</v>
-      </c>
-      <c r="E116">
-        <v>3.896589040756226</v>
-      </c>
-      <c r="F116">
-        <v>7.5385150909423828</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>65</v>
-      </c>
-      <c r="J116" t="s">
-        <v>387</v>
       </c>
       <c r="K116">
         <v>4</v>
       </c>
       <c r="L116" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M116" t="s">
+        <v>387</v>
+      </c>
+      <c r="N116" t="s">
         <v>388</v>
-      </c>
-      <c r="N116" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -7158,38 +7158,38 @@
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s">
+        <v>393</v>
+      </c>
+      <c r="D117">
+        <v>3.9171972274780269</v>
+      </c>
+      <c r="E117">
+        <v>8.0643148422241211</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>64</v>
+      </c>
+      <c r="J117" t="s">
         <v>394</v>
-      </c>
-      <c r="E117">
-        <v>3.9171972274780269</v>
-      </c>
-      <c r="F117">
-        <v>8.0643148422241211</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="I117" t="s">
-        <v>65</v>
-      </c>
-      <c r="J117" t="s">
-        <v>395</v>
       </c>
       <c r="K117">
         <v>4</v>
       </c>
       <c r="L117" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M117" t="s">
+        <v>395</v>
+      </c>
+      <c r="N117" t="s">
         <v>396</v>
-      </c>
-      <c r="N117" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -7199,38 +7199,38 @@
       <c r="B118">
         <v>1</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118">
+        <v>5.2615246772766113</v>
+      </c>
+      <c r="E118">
+        <v>8.2240152359008789</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>64</v>
+      </c>
+      <c r="J118" t="s">
         <v>402</v>
-      </c>
-      <c r="E118">
-        <v>5.2615246772766113</v>
-      </c>
-      <c r="F118">
-        <v>8.2240152359008789</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="I118" t="s">
-        <v>65</v>
-      </c>
-      <c r="J118" t="s">
-        <v>403</v>
       </c>
       <c r="K118">
         <v>4</v>
       </c>
       <c r="L118" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M118" t="s">
+        <v>403</v>
+      </c>
+      <c r="N118" t="s">
         <v>404</v>
-      </c>
-      <c r="N118" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -7240,38 +7240,38 @@
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s">
+        <v>582</v>
+      </c>
+      <c r="D119">
+        <v>5.257843017578125</v>
+      </c>
+      <c r="E119">
+        <v>8.3564090728759766</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>64</v>
+      </c>
+      <c r="J119" t="s">
         <v>583</v>
-      </c>
-      <c r="E119">
-        <v>5.257843017578125</v>
-      </c>
-      <c r="F119">
-        <v>8.3564090728759766</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>65</v>
-      </c>
-      <c r="J119" t="s">
-        <v>584</v>
       </c>
       <c r="K119">
         <v>4</v>
       </c>
       <c r="L119" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M119" t="s">
+        <v>584</v>
+      </c>
+      <c r="N119" t="s">
         <v>585</v>
-      </c>
-      <c r="N119" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -7281,38 +7281,38 @@
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120">
+        <v>5.040621280670166</v>
+      </c>
+      <c r="E120">
+        <v>9.112025260925293</v>
+      </c>
+      <c r="F120">
         <v>0.95008846111060563</v>
       </c>
-      <c r="D120" t="s">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>64</v>
+      </c>
+      <c r="J120" t="s">
         <v>270</v>
-      </c>
-      <c r="E120">
-        <v>5.040621280670166</v>
-      </c>
-      <c r="F120">
-        <v>9.112025260925293</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>65</v>
-      </c>
-      <c r="J120" t="s">
-        <v>271</v>
       </c>
       <c r="K120">
         <v>4</v>
       </c>
       <c r="L120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M120" t="s">
+        <v>271</v>
+      </c>
+      <c r="N120" t="s">
         <v>272</v>
-      </c>
-      <c r="N120" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
@@ -7322,38 +7322,38 @@
       <c r="B121">
         <v>1</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="s">
+        <v>103</v>
+      </c>
+      <c r="D121">
+        <v>3.9480762481689449</v>
+      </c>
+      <c r="E121">
+        <v>7.4759254455566406</v>
+      </c>
+      <c r="F121">
         <v>0.93548201329485114</v>
       </c>
-      <c r="D121" t="s">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>64</v>
+      </c>
+      <c r="J121" t="s">
         <v>104</v>
-      </c>
-      <c r="E121">
-        <v>3.9480762481689449</v>
-      </c>
-      <c r="F121">
-        <v>7.4759254455566406</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>65</v>
-      </c>
-      <c r="J121" t="s">
-        <v>105</v>
       </c>
       <c r="K121">
         <v>4</v>
       </c>
       <c r="L121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M121" t="s">
+        <v>105</v>
+      </c>
+      <c r="N121" t="s">
         <v>106</v>
-      </c>
-      <c r="N121" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -7363,38 +7363,38 @@
       <c r="B122">
         <v>1</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="s">
+        <v>297</v>
+      </c>
+      <c r="D122">
+        <v>3.645140647888184</v>
+      </c>
+      <c r="E122">
+        <v>7.4880719184875488</v>
+      </c>
+      <c r="F122">
         <v>0.91738149471854591</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>64</v>
+      </c>
+      <c r="J122" t="s">
         <v>298</v>
-      </c>
-      <c r="E122">
-        <v>3.645140647888184</v>
-      </c>
-      <c r="F122">
-        <v>7.4880719184875488</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="I122" t="s">
-        <v>65</v>
-      </c>
-      <c r="J122" t="s">
-        <v>299</v>
       </c>
       <c r="K122">
         <v>4</v>
       </c>
       <c r="L122" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M122" t="s">
+        <v>299</v>
+      </c>
+      <c r="N122" t="s">
         <v>300</v>
-      </c>
-      <c r="N122" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -7404,38 +7404,38 @@
       <c r="B123">
         <v>1</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="s">
+        <v>433</v>
+      </c>
+      <c r="D123">
+        <v>3.844007253646851</v>
+      </c>
+      <c r="E123">
+        <v>7.445981502532959</v>
+      </c>
+      <c r="F123">
         <v>0.88898075422835443</v>
       </c>
-      <c r="D123" t="s">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>64</v>
+      </c>
+      <c r="J123" t="s">
         <v>434</v>
-      </c>
-      <c r="E123">
-        <v>3.844007253646851</v>
-      </c>
-      <c r="F123">
-        <v>7.445981502532959</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="I123" t="s">
-        <v>65</v>
-      </c>
-      <c r="J123" t="s">
-        <v>435</v>
       </c>
       <c r="K123">
         <v>4</v>
       </c>
       <c r="L123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M123" t="s">
+        <v>435</v>
+      </c>
+      <c r="N123" t="s">
         <v>436</v>
-      </c>
-      <c r="N123" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
@@ -7445,38 +7445,38 @@
       <c r="B124">
         <v>1</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124">
+        <v>5.5319757461547852</v>
+      </c>
+      <c r="E124">
+        <v>9.2125272750854492</v>
+      </c>
+      <c r="F124">
         <v>0.86008650455078628</v>
       </c>
-      <c r="D124" t="s">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>64</v>
+      </c>
+      <c r="J124" t="s">
         <v>166</v>
-      </c>
-      <c r="E124">
-        <v>5.5319757461547852</v>
-      </c>
-      <c r="F124">
-        <v>9.2125272750854492</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="I124" t="s">
-        <v>65</v>
-      </c>
-      <c r="J124" t="s">
-        <v>167</v>
       </c>
       <c r="K124">
         <v>4</v>
       </c>
       <c r="L124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M124" t="s">
+        <v>167</v>
+      </c>
+      <c r="N124" t="s">
         <v>168</v>
-      </c>
-      <c r="N124" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -7486,38 +7486,38 @@
       <c r="B125">
         <v>1</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="s">
+        <v>602</v>
+      </c>
+      <c r="D125">
+        <v>5.2845768928527832</v>
+      </c>
+      <c r="E125">
+        <v>9.0987110137939453</v>
+      </c>
+      <c r="F125">
         <v>0.86008650455078628</v>
       </c>
-      <c r="D125" t="s">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>64</v>
+      </c>
+      <c r="J125" t="s">
         <v>603</v>
-      </c>
-      <c r="E125">
-        <v>5.2845768928527832</v>
-      </c>
-      <c r="F125">
-        <v>9.0987110137939453</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="I125" t="s">
-        <v>65</v>
-      </c>
-      <c r="J125" t="s">
-        <v>604</v>
       </c>
       <c r="K125">
         <v>4</v>
       </c>
       <c r="L125" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M125" t="s">
+        <v>604</v>
+      </c>
+      <c r="N125" t="s">
         <v>605</v>
-      </c>
-      <c r="N125" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -7527,38 +7527,38 @@
       <c r="B126">
         <v>-1</v>
       </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C126" t="s">
+        <v>131</v>
+      </c>
+      <c r="D126">
+        <v>5.228980541229248</v>
+      </c>
+      <c r="E126">
+        <v>9.1972208023071289</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>64</v>
+      </c>
+      <c r="J126" t="s">
         <v>132</v>
-      </c>
-      <c r="E126">
-        <v>5.228980541229248</v>
-      </c>
-      <c r="F126">
-        <v>9.1972208023071289</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="I126" t="s">
-        <v>65</v>
-      </c>
-      <c r="J126" t="s">
-        <v>133</v>
       </c>
       <c r="K126">
         <v>4</v>
       </c>
       <c r="L126" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M126" t="s">
+        <v>133</v>
+      </c>
+      <c r="N126" t="s">
         <v>134</v>
-      </c>
-      <c r="N126" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -7568,38 +7568,38 @@
       <c r="B127">
         <v>-1</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127">
+        <v>5.6276893615722656</v>
+      </c>
+      <c r="E127">
+        <v>9.5062665939331055</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>64</v>
+      </c>
+      <c r="J127" t="s">
         <v>318</v>
-      </c>
-      <c r="E127">
-        <v>5.6276893615722656</v>
-      </c>
-      <c r="F127">
-        <v>9.5062665939331055</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="I127" t="s">
-        <v>65</v>
-      </c>
-      <c r="J127" t="s">
-        <v>319</v>
       </c>
       <c r="K127">
         <v>4</v>
       </c>
       <c r="L127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M127" t="s">
+        <v>319</v>
+      </c>
+      <c r="N127" t="s">
         <v>320</v>
-      </c>
-      <c r="N127" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
@@ -7609,17 +7609,17 @@
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>84</v>
+      <c r="C128" t="s">
+        <v>83</v>
+      </c>
+      <c r="D128">
+        <v>3.426979541778564</v>
       </c>
       <c r="E128">
-        <v>3.426979541778564</v>
+        <v>9.0809087753295898</v>
       </c>
       <c r="F128">
-        <v>9.0809087753295898</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -7628,22 +7628,22 @@
         <v>5</v>
       </c>
       <c r="I128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K128">
         <v>5</v>
       </c>
       <c r="L128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M128" t="s">
+        <v>85</v>
+      </c>
+      <c r="N128" t="s">
         <v>86</v>
-      </c>
-      <c r="N128" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
@@ -7653,17 +7653,17 @@
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>100</v>
+      <c r="C129" t="s">
+        <v>99</v>
+      </c>
+      <c r="D129">
+        <v>3.6136670112609859</v>
       </c>
       <c r="E129">
-        <v>3.6136670112609859</v>
+        <v>8.961796760559082</v>
       </c>
       <c r="F129">
-        <v>8.961796760559082</v>
+        <v>1</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -7672,22 +7672,22 @@
         <v>5</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K129">
         <v>5</v>
       </c>
       <c r="L129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M129" t="s">
+        <v>101</v>
+      </c>
+      <c r="N129" t="s">
         <v>102</v>
-      </c>
-      <c r="N129" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
@@ -7697,17 +7697,17 @@
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>112</v>
+      <c r="C130" t="s">
+        <v>111</v>
+      </c>
+      <c r="D130">
+        <v>3.438692569732666</v>
       </c>
       <c r="E130">
-        <v>3.438692569732666</v>
+        <v>9.1240596771240234</v>
       </c>
       <c r="F130">
-        <v>9.1240596771240234</v>
+        <v>1</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -7716,22 +7716,22 @@
         <v>5</v>
       </c>
       <c r="I130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J130" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K130">
         <v>5</v>
       </c>
       <c r="L130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M130" t="s">
+        <v>113</v>
+      </c>
+      <c r="N130" t="s">
         <v>114</v>
-      </c>
-      <c r="N130" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
@@ -7741,17 +7741,17 @@
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>116</v>
+      <c r="C131" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131">
+        <v>3.486993789672852</v>
       </c>
       <c r="E131">
-        <v>3.486993789672852</v>
+        <v>9.0855541229248047</v>
       </c>
       <c r="F131">
-        <v>9.0855541229248047</v>
+        <v>1</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -7760,22 +7760,22 @@
         <v>5</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K131">
         <v>5</v>
       </c>
       <c r="L131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M131" t="s">
+        <v>117</v>
+      </c>
+      <c r="N131" t="s">
         <v>118</v>
-      </c>
-      <c r="N131" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7785,17 +7785,17 @@
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>222</v>
+      <c r="C132" t="s">
+        <v>221</v>
+      </c>
+      <c r="D132">
+        <v>2.1303055286407471</v>
       </c>
       <c r="E132">
-        <v>2.1303055286407471</v>
+        <v>8.4678535461425781</v>
       </c>
       <c r="F132">
-        <v>8.4678535461425781</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -7804,22 +7804,22 @@
         <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J132" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K132">
         <v>5</v>
       </c>
       <c r="L132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M132" t="s">
+        <v>223</v>
+      </c>
+      <c r="N132" t="s">
         <v>224</v>
-      </c>
-      <c r="N132" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7829,17 +7829,17 @@
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133" t="s">
-        <v>390</v>
+      <c r="C133" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133">
+        <v>3.272377490997314</v>
       </c>
       <c r="E133">
-        <v>3.272377490997314</v>
+        <v>8.9424676895141602</v>
       </c>
       <c r="F133">
-        <v>8.9424676895141602</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -7848,22 +7848,22 @@
         <v>5</v>
       </c>
       <c r="I133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J133" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K133">
         <v>5</v>
       </c>
       <c r="L133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M133" t="s">
+        <v>391</v>
+      </c>
+      <c r="N133" t="s">
         <v>392</v>
-      </c>
-      <c r="N133" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7873,17 +7873,17 @@
       <c r="B134">
         <v>1</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
-        <v>406</v>
+      <c r="C134" t="s">
+        <v>405</v>
+      </c>
+      <c r="D134">
+        <v>1.6642096042633061</v>
       </c>
       <c r="E134">
-        <v>1.6642096042633061</v>
+        <v>8.1839170455932617</v>
       </c>
       <c r="F134">
-        <v>8.1839170455932617</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -7892,22 +7892,22 @@
         <v>-1</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J134" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K134">
         <v>5</v>
       </c>
       <c r="L134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M134" t="s">
+        <v>407</v>
+      </c>
+      <c r="N134" t="s">
         <v>408</v>
-      </c>
-      <c r="N134" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7917,38 +7917,38 @@
       <c r="B135">
         <v>1</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135">
+        <v>2.033694744110107</v>
+      </c>
+      <c r="E135">
+        <v>8.6445474624633789</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
         <v>46</v>
       </c>
-      <c r="E135">
-        <v>2.033694744110107</v>
-      </c>
-      <c r="F135">
-        <v>8.6445474624633789</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>47</v>
-      </c>
-      <c r="J135" t="s">
-        <v>48</v>
       </c>
       <c r="K135">
         <v>5</v>
       </c>
       <c r="L135" t="s">
+        <v>48</v>
+      </c>
+      <c r="M135" t="s">
         <v>49</v>
       </c>
-      <c r="M135" t="s">
+      <c r="N135" t="s">
         <v>50</v>
-      </c>
-      <c r="N135" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7958,38 +7958,38 @@
       <c r="B136">
         <v>1</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s">
+        <v>95</v>
+      </c>
+      <c r="D136">
+        <v>3.547377347946167</v>
+      </c>
+      <c r="E136">
+        <v>8.7826499938964844</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>46</v>
+      </c>
+      <c r="J136" t="s">
         <v>96</v>
-      </c>
-      <c r="E136">
-        <v>3.547377347946167</v>
-      </c>
-      <c r="F136">
-        <v>8.7826499938964844</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="I136" t="s">
-        <v>47</v>
-      </c>
-      <c r="J136" t="s">
-        <v>97</v>
       </c>
       <c r="K136">
         <v>5</v>
       </c>
       <c r="L136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M136" t="s">
+        <v>97</v>
+      </c>
+      <c r="N136" t="s">
         <v>98</v>
-      </c>
-      <c r="N136" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7999,38 +7999,38 @@
       <c r="B137">
         <v>1</v>
       </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s">
+        <v>185</v>
+      </c>
+      <c r="D137">
+        <v>1.7243233919143679</v>
+      </c>
+      <c r="E137">
+        <v>8.3583650588989258</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>46</v>
+      </c>
+      <c r="J137" t="s">
         <v>186</v>
-      </c>
-      <c r="E137">
-        <v>1.7243233919143679</v>
-      </c>
-      <c r="F137">
-        <v>8.3583650588989258</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="I137" t="s">
-        <v>47</v>
-      </c>
-      <c r="J137" t="s">
-        <v>187</v>
       </c>
       <c r="K137">
         <v>5</v>
       </c>
       <c r="L137" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M137" t="s">
+        <v>187</v>
+      </c>
+      <c r="N137" t="s">
         <v>188</v>
-      </c>
-      <c r="N137" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -8040,38 +8040,38 @@
       <c r="B138">
         <v>1</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s">
+        <v>237</v>
+      </c>
+      <c r="D138">
+        <v>1.6781075000762939</v>
+      </c>
+      <c r="E138">
+        <v>8.4661293029785156</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>46</v>
+      </c>
+      <c r="J138" t="s">
         <v>238</v>
-      </c>
-      <c r="E138">
-        <v>1.6781075000762939</v>
-      </c>
-      <c r="F138">
-        <v>8.4661293029785156</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="I138" t="s">
-        <v>47</v>
-      </c>
-      <c r="J138" t="s">
-        <v>239</v>
       </c>
       <c r="K138">
         <v>5</v>
       </c>
       <c r="L138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M138" t="s">
+        <v>239</v>
+      </c>
+      <c r="N138" t="s">
         <v>240</v>
-      </c>
-      <c r="N138" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -8081,38 +8081,38 @@
       <c r="B139">
         <v>1</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s">
+        <v>241</v>
+      </c>
+      <c r="D139">
+        <v>1.9132668972015381</v>
+      </c>
+      <c r="E139">
+        <v>8.3965530395507812</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" t="s">
         <v>242</v>
-      </c>
-      <c r="E139">
-        <v>1.9132668972015381</v>
-      </c>
-      <c r="F139">
-        <v>8.3965530395507812</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="I139" t="s">
-        <v>47</v>
-      </c>
-      <c r="J139" t="s">
-        <v>243</v>
       </c>
       <c r="K139">
         <v>5</v>
       </c>
       <c r="L139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M139" t="s">
+        <v>243</v>
+      </c>
+      <c r="N139" t="s">
         <v>244</v>
-      </c>
-      <c r="N139" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -8122,38 +8122,38 @@
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
+        <v>249</v>
+      </c>
+      <c r="D140">
+        <v>2.6681499481201172</v>
+      </c>
+      <c r="E140">
+        <v>8.1228504180908203</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>46</v>
+      </c>
+      <c r="J140" t="s">
         <v>250</v>
-      </c>
-      <c r="E140">
-        <v>2.6681499481201172</v>
-      </c>
-      <c r="F140">
-        <v>8.1228504180908203</v>
-      </c>
-      <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="I140" t="s">
-        <v>47</v>
-      </c>
-      <c r="J140" t="s">
-        <v>251</v>
       </c>
       <c r="K140">
         <v>5</v>
       </c>
       <c r="L140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M140" t="s">
+        <v>251</v>
+      </c>
+      <c r="N140" t="s">
         <v>252</v>
-      </c>
-      <c r="N140" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -8163,38 +8163,38 @@
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141">
+        <v>2.5618445873260498</v>
+      </c>
+      <c r="E141">
+        <v>8.1425762176513672</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>46</v>
+      </c>
+      <c r="J141" t="s">
         <v>330</v>
-      </c>
-      <c r="E141">
-        <v>2.5618445873260498</v>
-      </c>
-      <c r="F141">
-        <v>8.1425762176513672</v>
-      </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="I141" t="s">
-        <v>47</v>
-      </c>
-      <c r="J141" t="s">
-        <v>331</v>
       </c>
       <c r="K141">
         <v>5</v>
       </c>
       <c r="L141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M141" t="s">
+        <v>331</v>
+      </c>
+      <c r="N141" t="s">
         <v>332</v>
-      </c>
-      <c r="N141" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -8204,38 +8204,38 @@
       <c r="B142">
         <v>1</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C142" t="s">
+        <v>333</v>
+      </c>
+      <c r="D142">
+        <v>1.8114503622055049</v>
+      </c>
+      <c r="E142">
+        <v>7.8757939338684082</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>46</v>
+      </c>
+      <c r="J142" t="s">
         <v>334</v>
-      </c>
-      <c r="E142">
-        <v>1.8114503622055049</v>
-      </c>
-      <c r="F142">
-        <v>7.8757939338684082</v>
-      </c>
-      <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="I142" t="s">
-        <v>47</v>
-      </c>
-      <c r="J142" t="s">
-        <v>335</v>
       </c>
       <c r="K142">
         <v>5</v>
       </c>
       <c r="L142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M142" t="s">
+        <v>335</v>
+      </c>
+      <c r="N142" t="s">
         <v>336</v>
-      </c>
-      <c r="N142" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -8245,38 +8245,38 @@
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="C143" t="s">
+        <v>345</v>
+      </c>
+      <c r="D143">
+        <v>3.036307811737061</v>
+      </c>
+      <c r="E143">
+        <v>8.0316896438598633</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" t="s">
         <v>346</v>
-      </c>
-      <c r="E143">
-        <v>3.036307811737061</v>
-      </c>
-      <c r="F143">
-        <v>8.0316896438598633</v>
-      </c>
-      <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="I143" t="s">
-        <v>47</v>
-      </c>
-      <c r="J143" t="s">
-        <v>347</v>
       </c>
       <c r="K143">
         <v>5</v>
       </c>
       <c r="L143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M143" t="s">
+        <v>347</v>
+      </c>
+      <c r="N143" t="s">
         <v>348</v>
-      </c>
-      <c r="N143" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -8286,38 +8286,38 @@
       <c r="B144">
         <v>1</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" t="s">
+        <v>357</v>
+      </c>
+      <c r="D144">
+        <v>1.3664276599884031</v>
+      </c>
+      <c r="E144">
+        <v>8.1407098770141602</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="s">
         <v>358</v>
-      </c>
-      <c r="E144">
-        <v>1.3664276599884031</v>
-      </c>
-      <c r="F144">
-        <v>8.1407098770141602</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="I144" t="s">
-        <v>47</v>
-      </c>
-      <c r="J144" t="s">
-        <v>359</v>
       </c>
       <c r="K144">
         <v>5</v>
       </c>
       <c r="L144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M144" t="s">
+        <v>359</v>
+      </c>
+      <c r="N144" t="s">
         <v>360</v>
-      </c>
-      <c r="N144" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
@@ -8327,38 +8327,38 @@
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C145" t="s">
+        <v>397</v>
+      </c>
+      <c r="D145">
+        <v>1.6732262372970581</v>
+      </c>
+      <c r="E145">
+        <v>8.833099365234375</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>46</v>
+      </c>
+      <c r="J145" t="s">
         <v>398</v>
-      </c>
-      <c r="E145">
-        <v>1.6732262372970581</v>
-      </c>
-      <c r="F145">
-        <v>8.833099365234375</v>
-      </c>
-      <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="I145" t="s">
-        <v>47</v>
-      </c>
-      <c r="J145" t="s">
-        <v>399</v>
       </c>
       <c r="K145">
         <v>5</v>
       </c>
       <c r="L145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M145" t="s">
+        <v>399</v>
+      </c>
+      <c r="N145" t="s">
         <v>400</v>
-      </c>
-      <c r="N145" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
@@ -8368,38 +8368,38 @@
       <c r="B146">
         <v>1</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" t="s">
+        <v>409</v>
+      </c>
+      <c r="D146">
+        <v>1.725771903991699</v>
+      </c>
+      <c r="E146">
+        <v>8.1942348480224609</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>46</v>
+      </c>
+      <c r="J146" t="s">
         <v>410</v>
-      </c>
-      <c r="E146">
-        <v>1.725771903991699</v>
-      </c>
-      <c r="F146">
-        <v>8.1942348480224609</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="I146" t="s">
-        <v>47</v>
-      </c>
-      <c r="J146" t="s">
-        <v>411</v>
       </c>
       <c r="K146">
         <v>5</v>
       </c>
       <c r="L146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M146" t="s">
+        <v>411</v>
+      </c>
+      <c r="N146" t="s">
         <v>412</v>
-      </c>
-      <c r="N146" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
@@ -8409,38 +8409,38 @@
       <c r="B147">
         <v>1</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C147" t="s">
+        <v>429</v>
+      </c>
+      <c r="D147">
+        <v>1.8010324239730831</v>
+      </c>
+      <c r="E147">
+        <v>8.077296257019043</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>46</v>
+      </c>
+      <c r="J147" t="s">
         <v>430</v>
-      </c>
-      <c r="E147">
-        <v>1.8010324239730831</v>
-      </c>
-      <c r="F147">
-        <v>8.077296257019043</v>
-      </c>
-      <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="I147" t="s">
-        <v>47</v>
-      </c>
-      <c r="J147" t="s">
-        <v>431</v>
       </c>
       <c r="K147">
         <v>5</v>
       </c>
       <c r="L147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M147" t="s">
+        <v>431</v>
+      </c>
+      <c r="N147" t="s">
         <v>432</v>
-      </c>
-      <c r="N147" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
@@ -8450,38 +8450,38 @@
       <c r="B148">
         <v>1</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="C148" t="s">
+        <v>449</v>
+      </c>
+      <c r="D148">
+        <v>1.8191277980804439</v>
+      </c>
+      <c r="E148">
+        <v>8.0757265090942383</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>46</v>
+      </c>
+      <c r="J148" t="s">
         <v>450</v>
-      </c>
-      <c r="E148">
-        <v>1.8191277980804439</v>
-      </c>
-      <c r="F148">
-        <v>8.0757265090942383</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="I148" t="s">
-        <v>47</v>
-      </c>
-      <c r="J148" t="s">
-        <v>451</v>
       </c>
       <c r="K148">
         <v>5</v>
       </c>
       <c r="L148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M148" t="s">
+        <v>451</v>
+      </c>
+      <c r="N148" t="s">
         <v>452</v>
-      </c>
-      <c r="N148" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
@@ -8491,38 +8491,38 @@
       <c r="B149">
         <v>1</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" t="s">
+        <v>489</v>
+      </c>
+      <c r="D149">
+        <v>2.89266037940979</v>
+      </c>
+      <c r="E149">
+        <v>8.6299400329589844</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>46</v>
+      </c>
+      <c r="J149" t="s">
         <v>490</v>
-      </c>
-      <c r="E149">
-        <v>2.89266037940979</v>
-      </c>
-      <c r="F149">
-        <v>8.6299400329589844</v>
-      </c>
-      <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="I149" t="s">
-        <v>47</v>
-      </c>
-      <c r="J149" t="s">
-        <v>491</v>
       </c>
       <c r="K149">
         <v>5</v>
       </c>
       <c r="L149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M149" t="s">
+        <v>491</v>
+      </c>
+      <c r="N149" t="s">
         <v>492</v>
-      </c>
-      <c r="N149" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
@@ -8532,38 +8532,38 @@
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C150" t="s">
+        <v>606</v>
+      </c>
+      <c r="D150">
+        <v>3.2318563461303711</v>
+      </c>
+      <c r="E150">
+        <v>8.9414710998535156</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>46</v>
+      </c>
+      <c r="J150" t="s">
         <v>607</v>
-      </c>
-      <c r="E150">
-        <v>3.2318563461303711</v>
-      </c>
-      <c r="F150">
-        <v>8.9414710998535156</v>
-      </c>
-      <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="I150" t="s">
-        <v>47</v>
-      </c>
-      <c r="J150" t="s">
-        <v>608</v>
       </c>
       <c r="K150">
         <v>5</v>
       </c>
       <c r="L150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M150" t="s">
+        <v>608</v>
+      </c>
+      <c r="N150" t="s">
         <v>609</v>
-      </c>
-      <c r="N150" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
@@ -8573,38 +8573,38 @@
       <c r="B151">
         <v>1</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="s">
+        <v>493</v>
+      </c>
+      <c r="D151">
+        <v>3.4043669700622559</v>
+      </c>
+      <c r="E151">
+        <v>9.1834011077880859</v>
+      </c>
+      <c r="F151">
         <v>0.9458556264538166</v>
       </c>
-      <c r="D151" t="s">
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>46</v>
+      </c>
+      <c r="J151" t="s">
         <v>494</v>
-      </c>
-      <c r="E151">
-        <v>3.4043669700622559</v>
-      </c>
-      <c r="F151">
-        <v>9.1834011077880859</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="I151" t="s">
-        <v>47</v>
-      </c>
-      <c r="J151" t="s">
-        <v>495</v>
       </c>
       <c r="K151">
         <v>5</v>
       </c>
       <c r="L151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M151" t="s">
+        <v>495</v>
+      </c>
+      <c r="N151" t="s">
         <v>496</v>
-      </c>
-      <c r="N151" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
@@ -8614,38 +8614,38 @@
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="s">
+        <v>565</v>
+      </c>
+      <c r="D152">
+        <v>2.094347476959229</v>
+      </c>
+      <c r="E152">
+        <v>7.7223553657531738</v>
+      </c>
+      <c r="F152">
         <v>0.91738149471854591</v>
       </c>
-      <c r="D152" t="s">
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>46</v>
+      </c>
+      <c r="J152" t="s">
         <v>566</v>
-      </c>
-      <c r="E152">
-        <v>2.094347476959229</v>
-      </c>
-      <c r="F152">
-        <v>7.7223553657531738</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="I152" t="s">
-        <v>47</v>
-      </c>
-      <c r="J152" t="s">
-        <v>567</v>
       </c>
       <c r="K152">
         <v>5</v>
       </c>
       <c r="L152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M152" t="s">
+        <v>567</v>
+      </c>
+      <c r="N152" t="s">
         <v>568</v>
-      </c>
-      <c r="N152" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
@@ -8655,38 +8655,38 @@
       <c r="B153">
         <v>1</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153">
+        <v>1.925500869750977</v>
+      </c>
+      <c r="E153">
+        <v>7.5954322814941406</v>
+      </c>
+      <c r="F153">
         <v>0.8900465171467552</v>
       </c>
-      <c r="D153" t="s">
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>46</v>
+      </c>
+      <c r="J153" t="s">
         <v>60</v>
-      </c>
-      <c r="E153">
-        <v>1.925500869750977</v>
-      </c>
-      <c r="F153">
-        <v>7.5954322814941406</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="I153" t="s">
-        <v>47</v>
-      </c>
-      <c r="J153" t="s">
-        <v>61</v>
       </c>
       <c r="K153">
         <v>5</v>
       </c>
       <c r="L153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M153" t="s">
+        <v>61</v>
+      </c>
+      <c r="N153" t="s">
         <v>62</v>
-      </c>
-      <c r="N153" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
@@ -8696,45 +8696,44 @@
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="s">
+        <v>365</v>
+      </c>
+      <c r="D154">
+        <v>1.608792781829834</v>
+      </c>
+      <c r="E154">
+        <v>9.3504219055175781</v>
+      </c>
+      <c r="F154">
         <v>0.83950383232234194</v>
       </c>
-      <c r="D154" t="s">
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>46</v>
+      </c>
+      <c r="J154" t="s">
         <v>366</v>
-      </c>
-      <c r="E154">
-        <v>1.608792781829834</v>
-      </c>
-      <c r="F154">
-        <v>9.3504219055175781</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="I154" t="s">
-        <v>47</v>
-      </c>
-      <c r="J154" t="s">
-        <v>367</v>
       </c>
       <c r="K154">
         <v>5</v>
       </c>
       <c r="L154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M154" t="s">
+        <v>367</v>
+      </c>
+      <c r="N154" t="s">
         <v>368</v>
-      </c>
-      <c r="N154" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N154">
     <sortCondition ref="I2:I154"/>
     <sortCondition descending="1" ref="G2:G154"/>
-    <sortCondition descending="1" ref="C2:C154"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
